--- a/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_office_equipment_services.xlsx
+++ b/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_office_equipment_services.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="sase_1832" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,40 +593,40 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.04106796116504854</v>
+        <v>-0.008135593220338983</v>
       </c>
       <c r="H2">
-        <v>0.04106796116504854</v>
+        <v>-0.008135593220338983</v>
       </c>
       <c r="I2">
-        <v>-0.08271844660194173</v>
+        <v>0.01127118644067797</v>
       </c>
       <c r="J2">
-        <v>-0.08271844660194173</v>
+        <v>0.005635593220338983</v>
       </c>
       <c r="K2">
-        <v>-0.832</v>
+        <v>-0.016</v>
       </c>
       <c r="L2">
-        <v>-0.08077669902912621</v>
+        <v>-0.00135593220338983</v>
       </c>
       <c r="M2">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
-        <v>0.01113861386138614</v>
+        <v>0.001350438892640108</v>
       </c>
       <c r="O2">
-        <v>-0.5408653846153847</v>
+        <v>-12.5</v>
       </c>
       <c r="P2">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="Q2">
-        <v>0.01113861386138614</v>
+        <v>0.001350438892640108</v>
       </c>
       <c r="R2">
-        <v>-0.5408653846153847</v>
+        <v>-12.5</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,73 +635,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.361</v>
+        <v>0.42</v>
       </c>
       <c r="V2">
-        <v>0.008935643564356435</v>
+        <v>0.002835921674544227</v>
       </c>
       <c r="W2">
-        <v>-0.07849056603773585</v>
+        <v>-0.001779755283648498</v>
       </c>
       <c r="X2">
-        <v>0.07446482134029415</v>
+        <v>0.06373236711075229</v>
       </c>
       <c r="Y2">
-        <v>-0.15295538737803</v>
+        <v>-0.0655121223944008</v>
       </c>
       <c r="Z2">
-        <v>1.06119925819081</v>
+        <v>1.371774006045106</v>
       </c>
       <c r="AA2">
-        <v>-0.08778075417267669</v>
+        <v>0.007730760288305045</v>
       </c>
       <c r="AB2">
-        <v>0.07446482134029415</v>
+        <v>0.06366992698885267</v>
       </c>
       <c r="AC2">
-        <v>-0.1622455755129709</v>
+        <v>-0.05593916670054763</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.243</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.243</v>
       </c>
       <c r="AG2">
-        <v>-0.361</v>
+        <v>-0.177</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.001638095494900332</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.02672385351369185</v>
       </c>
       <c r="AJ2">
-        <v>-0.009016209196033867</v>
+        <v>-0.00119656848495501</v>
       </c>
       <c r="AK2">
-        <v>-0.04149902287619266</v>
+        <v>-0.02040816326530612</v>
       </c>
       <c r="AL2">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="AM2">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="AN2">
-        <v>-0</v>
+        <v>0.5497737556561085</v>
       </c>
       <c r="AO2">
-        <v>-142</v>
+        <v>12.09090909090909</v>
       </c>
       <c r="AP2">
-        <v>0.6747663551401869</v>
+        <v>-0.4004524886877828</v>
       </c>
       <c r="AQ2">
-        <v>-142</v>
+        <v>12.09090909090909</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +712,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Al-Samaani Factory For Metal Industries Co. (SASE:9504)</t>
+          <t>Al-Samaani Factory For Metal Industries Co. (SASE:1832)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,115 +721,8833 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.04106796116504854</v>
+        <v>-0.008135593220338983</v>
       </c>
       <c r="H3">
-        <v>0.04106796116504854</v>
+        <v>-0.008135593220338983</v>
       </c>
       <c r="I3">
-        <v>-0.08271844660194173</v>
+        <v>0.01127118644067797</v>
       </c>
       <c r="J3">
-        <v>-0.08271844660194173</v>
+        <v>0.005635593220338983</v>
       </c>
       <c r="K3">
-        <v>-0.832</v>
+        <v>-0.016</v>
       </c>
       <c r="L3">
-        <v>-0.08077669902912621</v>
+        <v>-0.00135593220338983</v>
       </c>
       <c r="M3">
+        <v>0.2</v>
+      </c>
+      <c r="N3">
+        <v>0.001350438892640108</v>
+      </c>
+      <c r="O3">
+        <v>-12.5</v>
+      </c>
+      <c r="P3">
+        <v>0.2</v>
+      </c>
+      <c r="Q3">
+        <v>0.001350438892640108</v>
+      </c>
+      <c r="R3">
+        <v>-12.5</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0.42</v>
+      </c>
+      <c r="V3">
+        <v>0.002835921674544227</v>
+      </c>
+      <c r="W3">
+        <v>-0.001779755283648498</v>
+      </c>
+      <c r="X3">
+        <v>0.06373236711075229</v>
+      </c>
+      <c r="Y3">
+        <v>-0.0655121223944008</v>
+      </c>
+      <c r="Z3">
+        <v>1.371774006045106</v>
+      </c>
+      <c r="AA3">
+        <v>0.007730760288305045</v>
+      </c>
+      <c r="AB3">
+        <v>0.06366992698885267</v>
+      </c>
+      <c r="AC3">
+        <v>-0.05593916670054763</v>
+      </c>
+      <c r="AD3">
+        <v>0.243</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0.243</v>
+      </c>
+      <c r="AG3">
+        <v>-0.177</v>
+      </c>
+      <c r="AH3">
+        <v>0.001638095494900332</v>
+      </c>
+      <c r="AI3">
+        <v>0.02672385351369185</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.00119656848495501</v>
+      </c>
+      <c r="AK3">
+        <v>-0.02040816326530612</v>
+      </c>
+      <c r="AL3">
+        <v>0.011</v>
+      </c>
+      <c r="AM3">
+        <v>0.011</v>
+      </c>
+      <c r="AN3">
+        <v>0.5497737556561085</v>
+      </c>
+      <c r="AO3">
+        <v>12.09090909090909</v>
+      </c>
+      <c r="AP3">
+        <v>-0.4004524886877828</v>
+      </c>
+      <c r="AQ3">
+        <v>12.09090909090909</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Al-Samaani Factory For Metal Industries Co. (SASE:1832)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SASE:1832</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Office Equipment &amp; Services</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.00163809549490033</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>148.1</v>
+      </c>
+      <c r="H2">
+        <v>148.36726041146</v>
+      </c>
+      <c r="I2">
+        <v>147.923</v>
+      </c>
+      <c r="J2">
+        <v>147.94726041146</v>
+      </c>
+      <c r="K2">
+        <v>0.243</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.0636699269888527</v>
+      </c>
+      <c r="N2">
+        <v>0.06366101140098621</v>
+      </c>
+      <c r="O2">
+        <v>0.0256148568105228</v>
+      </c>
+      <c r="P2">
+        <v>0.01296</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.06373236711075229</v>
+      </c>
+      <c r="T2">
+        <v>0.06366101140098621</v>
+      </c>
+      <c r="U2">
+        <v>1.00772544154778</v>
+      </c>
+      <c r="V2">
+        <v>1.00640440834735</v>
+      </c>
+      <c r="W2">
+        <v>10000000</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>148.1</v>
+      </c>
+      <c r="AB2">
+        <v>0.05401507679229468</v>
+      </c>
+      <c r="AC2">
+        <v>0.03201857101315345</v>
+      </c>
+      <c r="AD2">
+        <v>0.2</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.442</v>
+      </c>
+      <c r="AH2">
+        <v>0.309</v>
+      </c>
+      <c r="AI2">
+        <v>0.486</v>
+      </c>
+      <c r="AJ2">
+        <v>0.243</v>
+      </c>
+      <c r="AK2">
+        <v>0.243</v>
+      </c>
+      <c r="AL2">
+        <v>0.011</v>
+      </c>
+      <c r="AM2">
+        <v>0.243</v>
+      </c>
+      <c r="AN2">
+        <v>0.42</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06366101140098625</v>
+      </c>
+      <c r="C2">
+        <v>148.3672604114599</v>
+      </c>
+      <c r="D2">
+        <v>147.9472604114599</v>
+      </c>
+      <c r="E2">
+        <v>-0.243</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.42</v>
+      </c>
+      <c r="H2">
+        <v>148.1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.442</v>
+      </c>
+      <c r="K2">
+        <v>0.309</v>
+      </c>
+      <c r="L2">
+        <v>0.133</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.133</v>
+      </c>
+      <c r="O2">
+        <v>0.0266</v>
+      </c>
+      <c r="P2">
+        <v>0.1064</v>
+      </c>
+      <c r="Q2">
+        <v>0.4154</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.06366101140098625</v>
+      </c>
+      <c r="T2">
+        <v>1.006404408347354</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.2</v>
+      </c>
+      <c r="W2">
+        <v>0.01296</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.06438926881332561</v>
+      </c>
+      <c r="C3">
+        <v>144.9280286491413</v>
+      </c>
+      <c r="D3">
+        <v>145.9914586491413</v>
+      </c>
+      <c r="E3">
+        <v>1.24043</v>
+      </c>
+      <c r="F3">
+        <v>1.48343</v>
+      </c>
+      <c r="G3">
+        <v>0.42</v>
+      </c>
+      <c r="H3">
+        <v>148.1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.442</v>
+      </c>
+      <c r="K3">
+        <v>0.309</v>
+      </c>
+      <c r="L3">
+        <v>0.133</v>
+      </c>
+      <c r="M3">
+        <v>0.16169387</v>
+      </c>
+      <c r="N3">
+        <v>-0.02869386999999998</v>
+      </c>
+      <c r="O3">
+        <v>-0.005738773999999997</v>
+      </c>
+      <c r="P3">
+        <v>-0.02295509599999999</v>
+      </c>
+      <c r="Q3">
+        <v>0.286044904</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.06411978077816216</v>
+      </c>
+      <c r="T3">
+        <v>1.014897766210012</v>
+      </c>
+      <c r="U3">
+        <v>0.109</v>
+      </c>
+      <c r="V3">
+        <v>0.1645084009678289</v>
+      </c>
+      <c r="W3">
+        <v>0.09106858429450665</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>0.8225420048391445</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.06691663410328885</v>
+      </c>
+      <c r="C4">
+        <v>137.0406538341858</v>
+      </c>
+      <c r="D4">
+        <v>139.5875138341858</v>
+      </c>
+      <c r="E4">
+        <v>2.72386</v>
+      </c>
+      <c r="F4">
+        <v>2.96686</v>
+      </c>
+      <c r="G4">
+        <v>0.42</v>
+      </c>
+      <c r="H4">
+        <v>148.1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.442</v>
+      </c>
+      <c r="K4">
+        <v>0.309</v>
+      </c>
+      <c r="L4">
+        <v>0.133</v>
+      </c>
+      <c r="M4">
+        <v>0.545012182</v>
+      </c>
+      <c r="N4">
+        <v>-0.412012182</v>
+      </c>
+      <c r="O4">
+        <v>-0.0824024364</v>
+      </c>
+      <c r="P4">
+        <v>-0.3296097456</v>
+      </c>
+      <c r="Q4">
+        <v>-0.02060974560000001</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.06471627373504467</v>
+      </c>
+      <c r="T4">
+        <v>1.025940848851109</v>
+      </c>
+      <c r="U4">
+        <v>0.1837</v>
+      </c>
+      <c r="V4">
+        <v>0.04880624851794597</v>
+      </c>
+      <c r="W4">
+        <v>0.1747342921472533</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>0.2440312425897299</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.06866063410328883</v>
+      </c>
+      <c r="C5">
+        <v>131.4561789615312</v>
+      </c>
+      <c r="D5">
+        <v>135.4864689615312</v>
+      </c>
+      <c r="E5">
+        <v>4.20729</v>
+      </c>
+      <c r="F5">
+        <v>4.45029</v>
+      </c>
+      <c r="G5">
+        <v>0.42</v>
+      </c>
+      <c r="H5">
+        <v>148.1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.442</v>
+      </c>
+      <c r="K5">
+        <v>0.309</v>
+      </c>
+      <c r="L5">
+        <v>0.133</v>
+      </c>
+      <c r="M5">
+        <v>0.817518273</v>
+      </c>
+      <c r="N5">
+        <v>-0.684518273</v>
+      </c>
+      <c r="O5">
+        <v>-0.1369036546</v>
+      </c>
+      <c r="P5">
+        <v>-0.5476146184</v>
+      </c>
+      <c r="Q5">
+        <v>-0.2386146184</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.0652875755261276</v>
+      </c>
+      <c r="T5">
+        <v>1.03651755863308</v>
+      </c>
+      <c r="U5">
+        <v>0.1837</v>
+      </c>
+      <c r="V5">
+        <v>0.03253749901196398</v>
+      </c>
+      <c r="W5">
+        <v>0.1777228614315022</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>0.1626874950598199</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.07040463410328884</v>
+      </c>
+      <c r="C6">
+        <v>126.105801628707</v>
+      </c>
+      <c r="D6">
+        <v>131.619521628707</v>
+      </c>
+      <c r="E6">
+        <v>5.69072</v>
+      </c>
+      <c r="F6">
+        <v>5.93372</v>
+      </c>
+      <c r="G6">
+        <v>0.42</v>
+      </c>
+      <c r="H6">
+        <v>148.1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.442</v>
+      </c>
+      <c r="K6">
+        <v>0.309</v>
+      </c>
+      <c r="L6">
+        <v>0.133</v>
+      </c>
+      <c r="M6">
+        <v>1.090024364</v>
+      </c>
+      <c r="N6">
+        <v>-0.957024364</v>
+      </c>
+      <c r="O6">
+        <v>-0.1914048728</v>
+      </c>
+      <c r="P6">
+        <v>-0.7656194912000001</v>
+      </c>
+      <c r="Q6">
+        <v>-0.4566194912000001</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.0658707794378581</v>
+      </c>
+      <c r="T6">
+        <v>1.047314616535508</v>
+      </c>
+      <c r="U6">
+        <v>0.1837</v>
+      </c>
+      <c r="V6">
+        <v>0.02440312425897299</v>
+      </c>
+      <c r="W6">
+        <v>0.1792171460736267</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>0.122015621294865</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.07214863410328884</v>
+      </c>
+      <c r="C7">
+        <v>120.9700337697295</v>
+      </c>
+      <c r="D7">
+        <v>127.9671837697295</v>
+      </c>
+      <c r="E7">
+        <v>7.174149999999999</v>
+      </c>
+      <c r="F7">
+        <v>7.417149999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.42</v>
+      </c>
+      <c r="H7">
+        <v>148.1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.442</v>
+      </c>
+      <c r="K7">
+        <v>0.309</v>
+      </c>
+      <c r="L7">
+        <v>0.133</v>
+      </c>
+      <c r="M7">
+        <v>1.362530455</v>
+      </c>
+      <c r="N7">
+        <v>-1.229530455</v>
+      </c>
+      <c r="O7">
+        <v>-0.245906091</v>
+      </c>
+      <c r="P7">
+        <v>-0.983624364</v>
+      </c>
+      <c r="Q7">
+        <v>-0.674624364</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.06646626132667767</v>
+      </c>
+      <c r="T7">
+        <v>1.058338980920092</v>
+      </c>
+      <c r="U7">
+        <v>0.1837</v>
+      </c>
+      <c r="V7">
+        <v>0.01952249940717839</v>
+      </c>
+      <c r="W7">
+        <v>0.1801137168589013</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>0.09761249703589192</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.07389263410328885</v>
+      </c>
+      <c r="C8">
+        <v>116.0314920283886</v>
+      </c>
+      <c r="D8">
+        <v>124.5120720283886</v>
+      </c>
+      <c r="E8">
+        <v>8.657579999999999</v>
+      </c>
+      <c r="F8">
+        <v>8.90058</v>
+      </c>
+      <c r="G8">
+        <v>0.42</v>
+      </c>
+      <c r="H8">
+        <v>148.1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.442</v>
+      </c>
+      <c r="K8">
+        <v>0.309</v>
+      </c>
+      <c r="L8">
+        <v>0.133</v>
+      </c>
+      <c r="M8">
+        <v>1.635036546</v>
+      </c>
+      <c r="N8">
+        <v>-1.502036546</v>
+      </c>
+      <c r="O8">
+        <v>-0.3004073092</v>
+      </c>
+      <c r="P8">
+        <v>-1.2016292368</v>
+      </c>
+      <c r="Q8">
+        <v>-0.8926292368000002</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.06707441304291892</v>
+      </c>
+      <c r="T8">
+        <v>1.069597906249029</v>
+      </c>
+      <c r="U8">
+        <v>0.1837</v>
+      </c>
+      <c r="V8">
+        <v>0.01626874950598199</v>
+      </c>
+      <c r="W8">
+        <v>0.1807114307157511</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>0.08134374752990992</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.07563663410328884</v>
+      </c>
+      <c r="C9">
+        <v>111.2746210925793</v>
+      </c>
+      <c r="D9">
+        <v>121.2386310925793</v>
+      </c>
+      <c r="E9">
+        <v>10.14101</v>
+      </c>
+      <c r="F9">
+        <v>10.38401</v>
+      </c>
+      <c r="G9">
+        <v>0.42</v>
+      </c>
+      <c r="H9">
+        <v>148.1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.442</v>
+      </c>
+      <c r="K9">
+        <v>0.309</v>
+      </c>
+      <c r="L9">
+        <v>0.133</v>
+      </c>
+      <c r="M9">
+        <v>1.907542637</v>
+      </c>
+      <c r="N9">
+        <v>-1.774542637</v>
+      </c>
+      <c r="O9">
+        <v>-0.3549085274</v>
+      </c>
+      <c r="P9">
+        <v>-1.4196341096</v>
+      </c>
+      <c r="Q9">
+        <v>-1.1106341096</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06769564329069223</v>
+      </c>
+      <c r="T9">
+        <v>1.081098959004395</v>
+      </c>
+      <c r="U9">
+        <v>0.1837</v>
+      </c>
+      <c r="V9">
+        <v>0.01394464243369885</v>
+      </c>
+      <c r="W9">
+        <v>0.1811383691849295</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>0.0697232121684942</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.07738063410328884</v>
+      </c>
+      <c r="C10">
+        <v>106.6854595521728</v>
+      </c>
+      <c r="D10">
+        <v>118.1328995521728</v>
+      </c>
+      <c r="E10">
+        <v>11.62444</v>
+      </c>
+      <c r="F10">
+        <v>11.86744</v>
+      </c>
+      <c r="G10">
+        <v>0.42</v>
+      </c>
+      <c r="H10">
+        <v>148.1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.442</v>
+      </c>
+      <c r="K10">
+        <v>0.309</v>
+      </c>
+      <c r="L10">
+        <v>0.133</v>
+      </c>
+      <c r="M10">
+        <v>2.180048728</v>
+      </c>
+      <c r="N10">
+        <v>-2.047048728</v>
+      </c>
+      <c r="O10">
+        <v>-0.4094097456</v>
+      </c>
+      <c r="P10">
+        <v>-1.6376389824</v>
+      </c>
+      <c r="Q10">
+        <v>-1.3286389824</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.06833037854385193</v>
+      </c>
+      <c r="T10">
+        <v>1.092850034645747</v>
+      </c>
+      <c r="U10">
+        <v>0.1837</v>
+      </c>
+      <c r="V10">
+        <v>0.01220156212948649</v>
+      </c>
+      <c r="W10">
+        <v>0.1814585730368133</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>0.06100781064743244</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.07912463410328885</v>
+      </c>
+      <c r="C11">
+        <v>102.2514408456967</v>
+      </c>
+      <c r="D11">
+        <v>115.1823108456967</v>
+      </c>
+      <c r="E11">
+        <v>13.10787</v>
+      </c>
+      <c r="F11">
+        <v>13.35087</v>
+      </c>
+      <c r="G11">
+        <v>0.42</v>
+      </c>
+      <c r="H11">
+        <v>148.1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.442</v>
+      </c>
+      <c r="K11">
+        <v>0.309</v>
+      </c>
+      <c r="L11">
+        <v>0.133</v>
+      </c>
+      <c r="M11">
+        <v>2.452554819</v>
+      </c>
+      <c r="N11">
+        <v>-2.319554819</v>
+      </c>
+      <c r="O11">
+        <v>-0.4639109638</v>
+      </c>
+      <c r="P11">
+        <v>-1.8556438552</v>
+      </c>
+      <c r="Q11">
+        <v>-1.5466438552</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.0689790640223558</v>
+      </c>
+      <c r="T11">
+        <v>1.10485937568581</v>
+      </c>
+      <c r="U11">
+        <v>0.1837</v>
+      </c>
+      <c r="V11">
+        <v>0.01084583300398799</v>
+      </c>
+      <c r="W11">
+        <v>0.1817076204771674</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>0.05422916501994002</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.08086863410328886</v>
+      </c>
+      <c r="C12">
+        <v>97.96122331046188</v>
+      </c>
+      <c r="D12">
+        <v>112.3755233104619</v>
+      </c>
+      <c r="E12">
+        <v>14.5913</v>
+      </c>
+      <c r="F12">
+        <v>14.8343</v>
+      </c>
+      <c r="G12">
+        <v>0.42</v>
+      </c>
+      <c r="H12">
+        <v>148.1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.442</v>
+      </c>
+      <c r="K12">
+        <v>0.309</v>
+      </c>
+      <c r="L12">
+        <v>0.133</v>
+      </c>
+      <c r="M12">
+        <v>2.72506091</v>
+      </c>
+      <c r="N12">
+        <v>-2.59206091</v>
+      </c>
+      <c r="O12">
+        <v>-0.5184121819999999</v>
+      </c>
+      <c r="P12">
+        <v>-2.073648728</v>
+      </c>
+      <c r="Q12">
+        <v>-1.764648728</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.06964216473371532</v>
+      </c>
+      <c r="T12">
+        <v>1.117135590971208</v>
+      </c>
+      <c r="U12">
+        <v>0.1837</v>
+      </c>
+      <c r="V12">
+        <v>0.009761249703589195</v>
+      </c>
+      <c r="W12">
+        <v>0.1819068584294507</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>0.04880624851794602</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.08261263410328885</v>
+      </c>
+      <c r="C13">
+        <v>93.80454448983801</v>
+      </c>
+      <c r="D13">
+        <v>109.702274489838</v>
+      </c>
+      <c r="E13">
+        <v>16.07473</v>
+      </c>
+      <c r="F13">
+        <v>16.31773</v>
+      </c>
+      <c r="G13">
+        <v>0.42</v>
+      </c>
+      <c r="H13">
+        <v>148.1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.442</v>
+      </c>
+      <c r="K13">
+        <v>0.309</v>
+      </c>
+      <c r="L13">
+        <v>0.133</v>
+      </c>
+      <c r="M13">
+        <v>2.997567001</v>
+      </c>
+      <c r="N13">
+        <v>-2.864567001</v>
+      </c>
+      <c r="O13">
+        <v>-0.5729134001999999</v>
+      </c>
+      <c r="P13">
+        <v>-2.2916536008</v>
+      </c>
+      <c r="Q13">
+        <v>-1.9826536008</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.07032016658465594</v>
+      </c>
+      <c r="T13">
+        <v>1.129687676263019</v>
+      </c>
+      <c r="U13">
+        <v>0.1837</v>
+      </c>
+      <c r="V13">
+        <v>0.008873863366899269</v>
+      </c>
+      <c r="W13">
+        <v>0.1820698712995006</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>0.0443693168344963</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.08435663410328886</v>
+      </c>
+      <c r="C14">
+        <v>89.77209575224056</v>
+      </c>
+      <c r="D14">
+        <v>107.1532557522406</v>
+      </c>
+      <c r="E14">
+        <v>17.55816</v>
+      </c>
+      <c r="F14">
+        <v>17.80116</v>
+      </c>
+      <c r="G14">
+        <v>0.42</v>
+      </c>
+      <c r="H14">
+        <v>148.1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.442</v>
+      </c>
+      <c r="K14">
+        <v>0.309</v>
+      </c>
+      <c r="L14">
+        <v>0.133</v>
+      </c>
+      <c r="M14">
+        <v>3.270073092</v>
+      </c>
+      <c r="N14">
+        <v>-3.137073092</v>
+      </c>
+      <c r="O14">
+        <v>-0.6274146184</v>
+      </c>
+      <c r="P14">
+        <v>-2.5096584736</v>
+      </c>
+      <c r="Q14">
+        <v>-2.2006584736</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.07101357756857249</v>
+      </c>
+      <c r="T14">
+        <v>1.142525036220554</v>
+      </c>
+      <c r="U14">
+        <v>0.1837</v>
+      </c>
+      <c r="V14">
+        <v>0.008134374752990996</v>
+      </c>
+      <c r="W14">
+        <v>0.1822057153578756</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>0.04067187376495496</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.08610063410328886</v>
+      </c>
+      <c r="C15">
+        <v>85.85541399313948</v>
+      </c>
+      <c r="D15">
+        <v>104.7200039931395</v>
+      </c>
+      <c r="E15">
+        <v>19.04159</v>
+      </c>
+      <c r="F15">
+        <v>19.28459</v>
+      </c>
+      <c r="G15">
+        <v>0.42</v>
+      </c>
+      <c r="H15">
+        <v>148.1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.442</v>
+      </c>
+      <c r="K15">
+        <v>0.309</v>
+      </c>
+      <c r="L15">
+        <v>0.133</v>
+      </c>
+      <c r="M15">
+        <v>3.542579183</v>
+      </c>
+      <c r="N15">
+        <v>-3.409579183</v>
+      </c>
+      <c r="O15">
+        <v>-0.6819158366</v>
+      </c>
+      <c r="P15">
+        <v>-2.7276633464</v>
+      </c>
+      <c r="Q15">
+        <v>-2.418663346399999</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.07172292903487791</v>
+      </c>
+      <c r="T15">
+        <v>1.15565750790125</v>
+      </c>
+      <c r="U15">
+        <v>0.1837</v>
+      </c>
+      <c r="V15">
+        <v>0.007508653618145536</v>
+      </c>
+      <c r="W15">
+        <v>0.1823206603303467</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.03754326809072772</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.08784463410328884</v>
+      </c>
+      <c r="C16">
+        <v>82.04678776491761</v>
+      </c>
+      <c r="D16">
+        <v>102.3948077649176</v>
+      </c>
+      <c r="E16">
+        <v>20.52502</v>
+      </c>
+      <c r="F16">
+        <v>20.76802</v>
+      </c>
+      <c r="G16">
+        <v>0.42</v>
+      </c>
+      <c r="H16">
+        <v>148.1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.442</v>
+      </c>
+      <c r="K16">
+        <v>0.309</v>
+      </c>
+      <c r="L16">
+        <v>0.133</v>
+      </c>
+      <c r="M16">
+        <v>3.815085274</v>
+      </c>
+      <c r="N16">
+        <v>-3.682085274</v>
+      </c>
+      <c r="O16">
+        <v>-0.7364170548</v>
+      </c>
+      <c r="P16">
+        <v>-2.9456682192</v>
+      </c>
+      <c r="Q16">
+        <v>-2.6366682192</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.07244877704691137</v>
+      </c>
+      <c r="T16">
+        <v>1.169095385900101</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>0.006972321216849426</v>
+      </c>
+      <c r="W16">
+        <v>0.1824191845924648</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.03486160608424715</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.08958863410328885</v>
+      </c>
+      <c r="C17">
+        <v>78.33917564080423</v>
+      </c>
+      <c r="D17">
+        <v>100.1706256408042</v>
+      </c>
+      <c r="E17">
+        <v>22.00845</v>
+      </c>
+      <c r="F17">
+        <v>22.25145</v>
+      </c>
+      <c r="G17">
+        <v>0.42</v>
+      </c>
+      <c r="H17">
+        <v>148.1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.442</v>
+      </c>
+      <c r="K17">
+        <v>0.309</v>
+      </c>
+      <c r="L17">
+        <v>0.133</v>
+      </c>
+      <c r="M17">
+        <v>4.087591365</v>
+      </c>
+      <c r="N17">
+        <v>-3.954591365</v>
+      </c>
+      <c r="O17">
+        <v>-0.7909182729999999</v>
+      </c>
+      <c r="P17">
+        <v>-3.163673092</v>
+      </c>
+      <c r="Q17">
+        <v>-2.854673092</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.07319170383569856</v>
+      </c>
+      <c r="T17">
+        <v>1.182849449263632</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>0.006507499802392797</v>
+      </c>
+      <c r="W17">
+        <v>0.1825045722863004</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.03253749901196401</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.09133263410328885</v>
+      </c>
+      <c r="C18">
+        <v>74.72613499222261</v>
+      </c>
+      <c r="D18">
+        <v>98.04101499222261</v>
+      </c>
+      <c r="E18">
+        <v>23.49188</v>
+      </c>
+      <c r="F18">
+        <v>23.73488</v>
+      </c>
+      <c r="G18">
+        <v>0.42</v>
+      </c>
+      <c r="H18">
+        <v>148.1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.442</v>
+      </c>
+      <c r="K18">
+        <v>0.309</v>
+      </c>
+      <c r="L18">
+        <v>0.133</v>
+      </c>
+      <c r="M18">
+        <v>4.360097456</v>
+      </c>
+      <c r="N18">
+        <v>-4.227097456</v>
+      </c>
+      <c r="O18">
+        <v>-0.8454194912</v>
+      </c>
+      <c r="P18">
+        <v>-3.3816779648</v>
+      </c>
+      <c r="Q18">
+        <v>-3.0726779648</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.07395231935755212</v>
+      </c>
+      <c r="T18">
+        <v>1.196930990326294</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>0.006100781064743247</v>
+      </c>
+      <c r="W18">
+        <v>0.1825792865184067</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.03050390532371627</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.09307663410328884</v>
+      </c>
+      <c r="C19">
+        <v>71.20175966210073</v>
+      </c>
+      <c r="D19">
+        <v>96.00006966210073</v>
+      </c>
+      <c r="E19">
+        <v>24.97531</v>
+      </c>
+      <c r="F19">
+        <v>25.21831</v>
+      </c>
+      <c r="G19">
+        <v>0.42</v>
+      </c>
+      <c r="H19">
+        <v>148.1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.442</v>
+      </c>
+      <c r="K19">
+        <v>0.309</v>
+      </c>
+      <c r="L19">
+        <v>0.133</v>
+      </c>
+      <c r="M19">
+        <v>4.632603547</v>
+      </c>
+      <c r="N19">
+        <v>-4.499603547</v>
+      </c>
+      <c r="O19">
+        <v>-0.8999207093999999</v>
+      </c>
+      <c r="P19">
+        <v>-3.5996828376</v>
+      </c>
+      <c r="Q19">
+        <v>-3.290682837599999</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.07473126296426962</v>
+      </c>
+      <c r="T19">
+        <v>1.211351845631431</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>0.005741911590346586</v>
+      </c>
+      <c r="W19">
+        <v>0.1826452108408533</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.02870955795173291</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.09482063410328885</v>
+      </c>
+      <c r="C20">
+        <v>67.76062526425338</v>
+      </c>
+      <c r="D20">
+        <v>94.04236526425338</v>
+      </c>
+      <c r="E20">
+        <v>26.45874</v>
+      </c>
+      <c r="F20">
+        <v>26.70174</v>
+      </c>
+      <c r="G20">
+        <v>0.42</v>
+      </c>
+      <c r="H20">
+        <v>148.1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.442</v>
+      </c>
+      <c r="K20">
+        <v>0.309</v>
+      </c>
+      <c r="L20">
+        <v>0.133</v>
+      </c>
+      <c r="M20">
+        <v>4.905109638</v>
+      </c>
+      <c r="N20">
+        <v>-4.772109638</v>
+      </c>
+      <c r="O20">
+        <v>-0.9544219276</v>
+      </c>
+      <c r="P20">
+        <v>-3.8176877104</v>
+      </c>
+      <c r="Q20">
+        <v>-3.5086877104</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.0755292051955412</v>
+      </c>
+      <c r="T20">
+        <v>1.226124429114741</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>0.005422916501993997</v>
+      </c>
+      <c r="W20">
+        <v>0.1827038102385837</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.02711458250997001</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.09656463410328886</v>
+      </c>
+      <c r="C21">
+        <v>64.39774104197666</v>
+      </c>
+      <c r="D21">
+        <v>92.16291104197666</v>
+      </c>
+      <c r="E21">
+        <v>27.94217</v>
+      </c>
+      <c r="F21">
+        <v>28.18517</v>
+      </c>
+      <c r="G21">
+        <v>0.42</v>
+      </c>
+      <c r="H21">
+        <v>148.1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.442</v>
+      </c>
+      <c r="K21">
+        <v>0.309</v>
+      </c>
+      <c r="L21">
+        <v>0.133</v>
+      </c>
+      <c r="M21">
+        <v>5.177615729</v>
+      </c>
+      <c r="N21">
+        <v>-5.044615729</v>
+      </c>
+      <c r="O21">
+        <v>-1.0089231458</v>
+      </c>
+      <c r="P21">
+        <v>-4.0356925832</v>
+      </c>
+      <c r="Q21">
+        <v>-3.7266925832</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.07634684970412813</v>
+      </c>
+      <c r="T21">
+        <v>1.241261767745787</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>0.005137499843994313</v>
+      </c>
+      <c r="W21">
+        <v>0.1827562412786582</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.0256874992199716</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.09830863410328886</v>
+      </c>
+      <c r="C22">
+        <v>61.1085073862247</v>
+      </c>
+      <c r="D22">
+        <v>90.3571073862247</v>
+      </c>
+      <c r="E22">
+        <v>29.4256</v>
+      </c>
+      <c r="F22">
+        <v>29.6686</v>
+      </c>
+      <c r="G22">
+        <v>0.42</v>
+      </c>
+      <c r="H22">
+        <v>148.1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.442</v>
+      </c>
+      <c r="K22">
+        <v>0.309</v>
+      </c>
+      <c r="L22">
+        <v>0.133</v>
+      </c>
+      <c r="M22">
+        <v>5.45012182</v>
+      </c>
+      <c r="N22">
+        <v>-5.31712182</v>
+      </c>
+      <c r="O22">
+        <v>-1.063424364</v>
+      </c>
+      <c r="P22">
+        <v>-4.253697455999999</v>
+      </c>
+      <c r="Q22">
+        <v>-3.944697455999999</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.07718493532542973</v>
+      </c>
+      <c r="T22">
+        <v>1.256777539842609</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>0.004880624851794598</v>
+      </c>
+      <c r="W22">
+        <v>0.1828034292147253</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.02440312425897295</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.1000526341032888</v>
+      </c>
+      <c r="C23">
+        <v>57.88867825204395</v>
+      </c>
+      <c r="D23">
+        <v>88.62070825204394</v>
+      </c>
+      <c r="E23">
+        <v>30.90903</v>
+      </c>
+      <c r="F23">
+        <v>31.15203</v>
+      </c>
+      <c r="G23">
+        <v>0.42</v>
+      </c>
+      <c r="H23">
+        <v>148.1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.442</v>
+      </c>
+      <c r="K23">
+        <v>0.309</v>
+      </c>
+      <c r="L23">
+        <v>0.133</v>
+      </c>
+      <c r="M23">
+        <v>5.722627910999999</v>
+      </c>
+      <c r="N23">
+        <v>-5.589627910999999</v>
+      </c>
+      <c r="O23">
+        <v>-1.1179255822</v>
+      </c>
+      <c r="P23">
+        <v>-4.471702328799999</v>
+      </c>
+      <c r="Q23">
+        <v>-4.162702328799999</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.07804423830423263</v>
+      </c>
+      <c r="T23">
+        <v>1.272686116296313</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0.004648214144566284</v>
+      </c>
+      <c r="W23">
+        <v>0.1828461230616432</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.02324107072283144</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.1017966341032888</v>
+      </c>
+      <c r="C24">
+        <v>54.73432782677767</v>
+      </c>
+      <c r="D24">
+        <v>86.94978782677767</v>
+      </c>
+      <c r="E24">
+        <v>32.39245999999999</v>
+      </c>
+      <c r="F24">
+        <v>32.63545999999999</v>
+      </c>
+      <c r="G24">
+        <v>0.42</v>
+      </c>
+      <c r="H24">
+        <v>148.1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.442</v>
+      </c>
+      <c r="K24">
+        <v>0.309</v>
+      </c>
+      <c r="L24">
+        <v>0.133</v>
+      </c>
+      <c r="M24">
+        <v>5.995134001999999</v>
+      </c>
+      <c r="N24">
+        <v>-5.862134001999999</v>
+      </c>
+      <c r="O24">
+        <v>-1.1724268004</v>
+      </c>
+      <c r="P24">
+        <v>-4.689707201599999</v>
+      </c>
+      <c r="Q24">
+        <v>-4.380707201599999</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.07892557469274844</v>
+      </c>
+      <c r="T24">
+        <v>1.289002604966779</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0.004436931683449634</v>
+      </c>
+      <c r="W24">
+        <v>0.1828849356497503</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.02218465841724815</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.1035406341032888</v>
+      </c>
+      <c r="C25">
+        <v>51.64182089926357</v>
+      </c>
+      <c r="D25">
+        <v>85.34071089926357</v>
+      </c>
+      <c r="E25">
+        <v>33.87589</v>
+      </c>
+      <c r="F25">
+        <v>34.11889</v>
+      </c>
+      <c r="G25">
+        <v>0.42</v>
+      </c>
+      <c r="H25">
+        <v>148.1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.442</v>
+      </c>
+      <c r="K25">
+        <v>0.309</v>
+      </c>
+      <c r="L25">
+        <v>0.133</v>
+      </c>
+      <c r="M25">
+        <v>6.267640093</v>
+      </c>
+      <c r="N25">
+        <v>-6.134640093</v>
+      </c>
+      <c r="O25">
+        <v>-1.2269280186</v>
+      </c>
+      <c r="P25">
+        <v>-4.9077120744</v>
+      </c>
+      <c r="Q25">
+        <v>-4.5987120744</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.0798298029355114</v>
+      </c>
+      <c r="T25">
+        <v>1.305742898537776</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0.004244021610256172</v>
+      </c>
+      <c r="W25">
+        <v>0.1829203732301959</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.02122010805128083</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1052846341032889</v>
+      </c>
+      <c r="C26">
+        <v>48.60778645930545</v>
+      </c>
+      <c r="D26">
+        <v>83.79010645930545</v>
+      </c>
+      <c r="E26">
+        <v>35.35932</v>
+      </c>
+      <c r="F26">
+        <v>35.60232</v>
+      </c>
+      <c r="G26">
+        <v>0.42</v>
+      </c>
+      <c r="H26">
+        <v>148.1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.442</v>
+      </c>
+      <c r="K26">
+        <v>0.309</v>
+      </c>
+      <c r="L26">
+        <v>0.133</v>
+      </c>
+      <c r="M26">
+        <v>6.540146184</v>
+      </c>
+      <c r="N26">
+        <v>-6.407146184</v>
+      </c>
+      <c r="O26">
+        <v>-1.2814292368</v>
+      </c>
+      <c r="P26">
+        <v>-5.1257169472</v>
+      </c>
+      <c r="Q26">
+        <v>-4.8167169472</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.08075782665834708</v>
+      </c>
+      <c r="T26">
+        <v>1.322923726150115</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0.004067187376495498</v>
+      </c>
+      <c r="W26">
+        <v>0.1829528576789378</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.02033593688247748</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1070286341032889</v>
+      </c>
+      <c r="C27">
+        <v>45.62909412390244</v>
+      </c>
+      <c r="D27">
+        <v>82.29484412390244</v>
+      </c>
+      <c r="E27">
+        <v>36.84275</v>
+      </c>
+      <c r="F27">
+        <v>37.08575</v>
+      </c>
+      <c r="G27">
+        <v>0.42</v>
+      </c>
+      <c r="H27">
+        <v>148.1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.442</v>
+      </c>
+      <c r="K27">
+        <v>0.309</v>
+      </c>
+      <c r="L27">
+        <v>0.133</v>
+      </c>
+      <c r="M27">
+        <v>6.812652275</v>
+      </c>
+      <c r="N27">
+        <v>-6.679652275</v>
+      </c>
+      <c r="O27">
+        <v>-1.335930455</v>
+      </c>
+      <c r="P27">
+        <v>-5.34372182</v>
+      </c>
+      <c r="Q27">
+        <v>-5.03472182</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.08171059768045838</v>
+      </c>
+      <c r="T27">
+        <v>1.34056270916545</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.003904499881435678</v>
+      </c>
+      <c r="W27">
+        <v>0.1829827433717803</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.01952249940717843</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1087726341032889</v>
+      </c>
+      <c r="C28">
+        <v>42.70283304331544</v>
+      </c>
+      <c r="D28">
+        <v>80.85201304331544</v>
+      </c>
+      <c r="E28">
+        <v>38.32617999999999</v>
+      </c>
+      <c r="F28">
+        <v>38.56918</v>
+      </c>
+      <c r="G28">
+        <v>0.42</v>
+      </c>
+      <c r="H28">
+        <v>148.1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.442</v>
+      </c>
+      <c r="K28">
+        <v>0.309</v>
+      </c>
+      <c r="L28">
+        <v>0.133</v>
+      </c>
+      <c r="M28">
+        <v>7.085158365999999</v>
+      </c>
+      <c r="N28">
+        <v>-6.952158365999999</v>
+      </c>
+      <c r="O28">
+        <v>-1.3904316732</v>
+      </c>
+      <c r="P28">
+        <v>-5.561726692799999</v>
+      </c>
+      <c r="Q28">
+        <v>-5.252726692799999</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.08268911927073484</v>
+      </c>
+      <c r="T28">
+        <v>1.358678421451469</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.003754326809072768</v>
+      </c>
+      <c r="W28">
+        <v>0.1830103301651733</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.01877163404536386</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1105166341032889</v>
+      </c>
+      <c r="C29">
+        <v>39.82629298787089</v>
+      </c>
+      <c r="D29">
+        <v>79.45890298787089</v>
+      </c>
+      <c r="E29">
+        <v>39.80961</v>
+      </c>
+      <c r="F29">
+        <v>40.05261</v>
+      </c>
+      <c r="G29">
+        <v>0.42</v>
+      </c>
+      <c r="H29">
+        <v>148.1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.442</v>
+      </c>
+      <c r="K29">
+        <v>0.309</v>
+      </c>
+      <c r="L29">
+        <v>0.133</v>
+      </c>
+      <c r="M29">
+        <v>7.357664457</v>
+      </c>
+      <c r="N29">
+        <v>-7.224664457</v>
+      </c>
+      <c r="O29">
+        <v>-1.4449328914</v>
+      </c>
+      <c r="P29">
+        <v>-5.779731565600001</v>
+      </c>
+      <c r="Q29">
+        <v>-5.4707315656</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.08369444967170381</v>
+      </c>
+      <c r="T29">
+        <v>1.377290454622037</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.003615277667995998</v>
+      </c>
+      <c r="W29">
+        <v>0.1830358734923891</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.01807638833998004</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1122606341032888</v>
+      </c>
+      <c r="C30">
+        <v>36.99694735693346</v>
+      </c>
+      <c r="D30">
+        <v>78.11298735693346</v>
+      </c>
+      <c r="E30">
+        <v>41.29304</v>
+      </c>
+      <c r="F30">
+        <v>41.53604</v>
+      </c>
+      <c r="G30">
+        <v>0.42</v>
+      </c>
+      <c r="H30">
+        <v>148.1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.442</v>
+      </c>
+      <c r="K30">
+        <v>0.309</v>
+      </c>
+      <c r="L30">
+        <v>0.133</v>
+      </c>
+      <c r="M30">
+        <v>7.630170548</v>
+      </c>
+      <c r="N30">
+        <v>-7.497170548</v>
+      </c>
+      <c r="O30">
+        <v>-1.4994341096</v>
+      </c>
+      <c r="P30">
+        <v>-5.9977364384</v>
+      </c>
+      <c r="Q30">
+        <v>-5.688736438399999</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.08472770591714414</v>
+      </c>
+      <c r="T30">
+        <v>1.39641948871401</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.003486160608424713</v>
+      </c>
+      <c r="W30">
+        <v>0.1830595922962324</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.01743080304212352</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1140046341032888</v>
+      </c>
+      <c r="C31">
+        <v>34.21243788593217</v>
+      </c>
+      <c r="D31">
+        <v>76.81190788593216</v>
+      </c>
+      <c r="E31">
+        <v>42.77646999999999</v>
+      </c>
+      <c r="F31">
+        <v>43.01946999999999</v>
+      </c>
+      <c r="G31">
+        <v>0.42</v>
+      </c>
+      <c r="H31">
+        <v>148.1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.442</v>
+      </c>
+      <c r="K31">
+        <v>0.309</v>
+      </c>
+      <c r="L31">
+        <v>0.133</v>
+      </c>
+      <c r="M31">
+        <v>7.902676638999998</v>
+      </c>
+      <c r="N31">
+        <v>-7.769676638999998</v>
+      </c>
+      <c r="O31">
+        <v>-1.5539353278</v>
+      </c>
+      <c r="P31">
+        <v>-6.215741311199999</v>
+      </c>
+      <c r="Q31">
+        <v>-5.906741311199998</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.08579006797231518</v>
+      </c>
+      <c r="T31">
+        <v>1.416087368836743</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.003365948173651448</v>
+      </c>
+      <c r="W31">
+        <v>0.1830816753205002</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.01682974086825728</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1157486341032888</v>
+      </c>
+      <c r="C32">
+        <v>31.47056085670039</v>
+      </c>
+      <c r="D32">
+        <v>75.55346085670038</v>
+      </c>
+      <c r="E32">
+        <v>44.25989999999999</v>
+      </c>
+      <c r="F32">
+        <v>44.5029</v>
+      </c>
+      <c r="G32">
+        <v>0.42</v>
+      </c>
+      <c r="H32">
+        <v>148.1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.442</v>
+      </c>
+      <c r="K32">
+        <v>0.309</v>
+      </c>
+      <c r="L32">
+        <v>0.133</v>
+      </c>
+      <c r="M32">
+        <v>8.17518273</v>
+      </c>
+      <c r="N32">
+        <v>-8.04218273</v>
+      </c>
+      <c r="O32">
+        <v>-1.608436546</v>
+      </c>
+      <c r="P32">
+        <v>-6.433746184</v>
+      </c>
+      <c r="Q32">
+        <v>-6.124746184</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.08688278322906254</v>
+      </c>
+      <c r="T32">
+        <v>1.436317188391553</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.003253749901196399</v>
+      </c>
+      <c r="W32">
+        <v>0.1831022861431502</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.01626874950598189</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1174926341032888</v>
+      </c>
+      <c r="C33">
+        <v>28.76925464150172</v>
+      </c>
+      <c r="D33">
+        <v>74.33558464150171</v>
+      </c>
+      <c r="E33">
+        <v>45.74332999999999</v>
+      </c>
+      <c r="F33">
+        <v>45.98633</v>
+      </c>
+      <c r="G33">
+        <v>0.42</v>
+      </c>
+      <c r="H33">
+        <v>148.1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.442</v>
+      </c>
+      <c r="K33">
+        <v>0.309</v>
+      </c>
+      <c r="L33">
+        <v>0.133</v>
+      </c>
+      <c r="M33">
+        <v>8.447688821</v>
+      </c>
+      <c r="N33">
+        <v>-8.314688821000001</v>
+      </c>
+      <c r="O33">
+        <v>-1.6629377642</v>
+      </c>
+      <c r="P33">
+        <v>-6.6517510568</v>
+      </c>
+      <c r="Q33">
+        <v>-6.3427510568</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.08800717139180259</v>
+      </c>
+      <c r="T33">
+        <v>1.457133379527663</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.003148790226964257</v>
+      </c>
+      <c r="W33">
+        <v>0.1831215672353067</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.01574395113482119</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1192366341032888</v>
+      </c>
+      <c r="C34">
+        <v>26.10658843264184</v>
+      </c>
+      <c r="D34">
+        <v>73.15634843264183</v>
+      </c>
+      <c r="E34">
+        <v>47.22676</v>
+      </c>
+      <c r="F34">
+        <v>47.46976</v>
+      </c>
+      <c r="G34">
+        <v>0.42</v>
+      </c>
+      <c r="H34">
+        <v>148.1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.442</v>
+      </c>
+      <c r="K34">
+        <v>0.309</v>
+      </c>
+      <c r="L34">
+        <v>0.133</v>
+      </c>
+      <c r="M34">
+        <v>8.720194912</v>
+      </c>
+      <c r="N34">
+        <v>-8.587194912000001</v>
+      </c>
+      <c r="O34">
+        <v>-1.7174389824</v>
+      </c>
+      <c r="P34">
+        <v>-6.869755929600001</v>
+      </c>
+      <c r="Q34">
+        <v>-6.560755929600001</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.08916462979462321</v>
+      </c>
+      <c r="T34">
+        <v>1.47856181157954</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.003050390532371623</v>
+      </c>
+      <c r="W34">
+        <v>0.1831396432592033</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.01525195266185797</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1209806341032889</v>
+      </c>
+      <c r="C35">
+        <v>23.48075202806742</v>
+      </c>
+      <c r="D35">
+        <v>72.01394202806742</v>
+      </c>
+      <c r="E35">
+        <v>48.71019</v>
+      </c>
+      <c r="F35">
+        <v>48.95319</v>
+      </c>
+      <c r="G35">
+        <v>0.42</v>
+      </c>
+      <c r="H35">
+        <v>148.1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.442</v>
+      </c>
+      <c r="K35">
+        <v>0.309</v>
+      </c>
+      <c r="L35">
+        <v>0.133</v>
+      </c>
+      <c r="M35">
+        <v>8.992701003000001</v>
+      </c>
+      <c r="N35">
+        <v>-8.859701003000001</v>
+      </c>
+      <c r="O35">
+        <v>-1.7719402006</v>
+      </c>
+      <c r="P35">
+        <v>-7.087760802400001</v>
+      </c>
+      <c r="Q35">
+        <v>-6.778760802400001</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.09035663919454297</v>
+      </c>
+      <c r="T35">
+        <v>1.500629898319533</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.002957954455633089</v>
+      </c>
+      <c r="W35">
+        <v>0.1831566237665002</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.01478977227816536</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1227246341032888</v>
+      </c>
+      <c r="C36">
+        <v>20.89004655929597</v>
+      </c>
+      <c r="D36">
+        <v>70.90666655929597</v>
+      </c>
+      <c r="E36">
+        <v>50.19362</v>
+      </c>
+      <c r="F36">
+        <v>50.43662</v>
+      </c>
+      <c r="G36">
+        <v>0.42</v>
+      </c>
+      <c r="H36">
+        <v>148.1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.442</v>
+      </c>
+      <c r="K36">
+        <v>0.309</v>
+      </c>
+      <c r="L36">
+        <v>0.133</v>
+      </c>
+      <c r="M36">
+        <v>9.265207093999999</v>
+      </c>
+      <c r="N36">
+        <v>-9.132207093999998</v>
+      </c>
+      <c r="O36">
+        <v>-1.8264414188</v>
+      </c>
+      <c r="P36">
+        <v>-7.305765675199998</v>
+      </c>
+      <c r="Q36">
+        <v>-6.996765675199998</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.09158477009142997</v>
+      </c>
+      <c r="T36">
+        <v>1.523366714960738</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.002870955795173293</v>
+      </c>
+      <c r="W36">
+        <v>0.1831726054204267</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.01435477897586657</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1244686341032889</v>
+      </c>
+      <c r="C37">
+        <v>18.3328760617877</v>
+      </c>
+      <c r="D37">
+        <v>69.8329260617877</v>
+      </c>
+      <c r="E37">
+        <v>51.67705</v>
+      </c>
+      <c r="F37">
+        <v>51.92005</v>
+      </c>
+      <c r="G37">
+        <v>0.42</v>
+      </c>
+      <c r="H37">
+        <v>148.1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.442</v>
+      </c>
+      <c r="K37">
+        <v>0.309</v>
+      </c>
+      <c r="L37">
+        <v>0.133</v>
+      </c>
+      <c r="M37">
+        <v>9.537713185000001</v>
+      </c>
+      <c r="N37">
+        <v>-9.404713185000002</v>
+      </c>
+      <c r="O37">
+        <v>-1.880942637</v>
+      </c>
+      <c r="P37">
+        <v>-7.523770548000002</v>
+      </c>
+      <c r="Q37">
+        <v>-7.214770548000002</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.09285068963129814</v>
+      </c>
+      <c r="T37">
+        <v>1.546803125960134</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.00278892848673977</v>
+      </c>
+      <c r="W37">
+        <v>0.1831876738369859</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.01394464243369875</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1262126341032888</v>
+      </c>
+      <c r="C38">
+        <v>15.80773979979246</v>
+      </c>
+      <c r="D38">
+        <v>68.79121979979246</v>
+      </c>
+      <c r="E38">
+        <v>53.16047999999999</v>
+      </c>
+      <c r="F38">
+        <v>53.40347999999999</v>
+      </c>
+      <c r="G38">
+        <v>0.42</v>
+      </c>
+      <c r="H38">
+        <v>148.1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.442</v>
+      </c>
+      <c r="K38">
+        <v>0.309</v>
+      </c>
+      <c r="L38">
+        <v>0.133</v>
+      </c>
+      <c r="M38">
+        <v>9.810219276</v>
+      </c>
+      <c r="N38">
+        <v>-9.677219275999999</v>
+      </c>
+      <c r="O38">
+        <v>-1.9354438552</v>
+      </c>
+      <c r="P38">
+        <v>-7.741775420799999</v>
+      </c>
+      <c r="Q38">
+        <v>-7.432775420799999</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.09415616915678715</v>
+      </c>
+      <c r="T38">
+        <v>1.570971924803261</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.002711458250996999</v>
+      </c>
+      <c r="W38">
+        <v>0.1832019051192919</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.01355729125498506</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1279566341032888</v>
+      </c>
+      <c r="C39">
+        <v>13.31322526804681</v>
+      </c>
+      <c r="D39">
+        <v>67.78013526804681</v>
+      </c>
+      <c r="E39">
+        <v>54.64390999999999</v>
+      </c>
+      <c r="F39">
+        <v>54.88690999999999</v>
+      </c>
+      <c r="G39">
+        <v>0.42</v>
+      </c>
+      <c r="H39">
+        <v>148.1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.442</v>
+      </c>
+      <c r="K39">
+        <v>0.309</v>
+      </c>
+      <c r="L39">
+        <v>0.133</v>
+      </c>
+      <c r="M39">
+        <v>10.082725367</v>
+      </c>
+      <c r="N39">
+        <v>-9.949725366999999</v>
+      </c>
+      <c r="O39">
+        <v>-1.9899450734</v>
+      </c>
+      <c r="P39">
+        <v>-7.9597802936</v>
+      </c>
+      <c r="Q39">
+        <v>-7.6507802936</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.09550309247673616</v>
+      </c>
+      <c r="T39">
+        <v>1.595907987101726</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.002638175595564648</v>
+      </c>
+      <c r="W39">
+        <v>0.1832153671430948</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.01319087797782315</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1297006341032889</v>
+      </c>
+      <c r="C40">
+        <v>10.84800180169292</v>
+      </c>
+      <c r="D40">
+        <v>66.79834180169291</v>
+      </c>
+      <c r="E40">
+        <v>56.12734</v>
+      </c>
+      <c r="F40">
+        <v>56.37034</v>
+      </c>
+      <c r="G40">
+        <v>0.42</v>
+      </c>
+      <c r="H40">
+        <v>148.1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.442</v>
+      </c>
+      <c r="K40">
+        <v>0.309</v>
+      </c>
+      <c r="L40">
+        <v>0.133</v>
+      </c>
+      <c r="M40">
+        <v>10.355231458</v>
+      </c>
+      <c r="N40">
+        <v>-10.222231458</v>
+      </c>
+      <c r="O40">
+        <v>-2.0444462916</v>
+      </c>
+      <c r="P40">
+        <v>-8.1777851664</v>
+      </c>
+      <c r="Q40">
+        <v>-7.868785166399999</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.09689346493603836</v>
+      </c>
+      <c r="T40">
+        <v>1.621648438506592</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.002568749921997157</v>
+      </c>
+      <c r="W40">
+        <v>0.1832281206393291</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.01284374960998591</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1314446341032889</v>
+      </c>
+      <c r="C41">
+        <v>8.410814733628513</v>
+      </c>
+      <c r="D41">
+        <v>65.84458473362851</v>
+      </c>
+      <c r="E41">
+        <v>57.61077</v>
+      </c>
+      <c r="F41">
+        <v>57.85377</v>
+      </c>
+      <c r="G41">
+        <v>0.42</v>
+      </c>
+      <c r="H41">
+        <v>148.1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.442</v>
+      </c>
+      <c r="K41">
+        <v>0.309</v>
+      </c>
+      <c r="L41">
+        <v>0.133</v>
+      </c>
+      <c r="M41">
+        <v>10.627737549</v>
+      </c>
+      <c r="N41">
+        <v>-10.494737549</v>
+      </c>
+      <c r="O41">
+        <v>-2.0989475098</v>
+      </c>
+      <c r="P41">
+        <v>-8.3957900392</v>
+      </c>
+      <c r="Q41">
+        <v>-8.0867900392</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.09832942337761276</v>
+      </c>
+      <c r="T41">
+        <v>1.648232839137848</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.002502884539381845</v>
+      </c>
+      <c r="W41">
+        <v>0.1832402201101156</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.01251442269690917</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1331886341032888</v>
+      </c>
+      <c r="C42">
+        <v>6.000480045344446</v>
+      </c>
+      <c r="D42">
+        <v>64.91768004534444</v>
+      </c>
+      <c r="E42">
+        <v>59.09419999999999</v>
+      </c>
+      <c r="F42">
+        <v>59.3372</v>
+      </c>
+      <c r="G42">
+        <v>0.42</v>
+      </c>
+      <c r="H42">
+        <v>148.1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.442</v>
+      </c>
+      <c r="K42">
+        <v>0.309</v>
+      </c>
+      <c r="L42">
+        <v>0.133</v>
+      </c>
+      <c r="M42">
+        <v>10.90024364</v>
+      </c>
+      <c r="N42">
+        <v>-10.76724364</v>
+      </c>
+      <c r="O42">
+        <v>-2.153448728</v>
+      </c>
+      <c r="P42">
+        <v>-8.613794911999999</v>
+      </c>
+      <c r="Q42">
+        <v>-8.304794912</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.09981324710057296</v>
+      </c>
+      <c r="T42">
+        <v>1.675703386456812</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.002440312425897299</v>
+      </c>
+      <c r="W42">
+        <v>0.1832517146073627</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.01220156212948642</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1349326341032888</v>
+      </c>
+      <c r="C43">
+        <v>3.615879463296473</v>
+      </c>
+      <c r="D43">
+        <v>64.01650946329647</v>
+      </c>
+      <c r="E43">
+        <v>60.57763</v>
+      </c>
+      <c r="F43">
+        <v>60.82063</v>
+      </c>
+      <c r="G43">
+        <v>0.42</v>
+      </c>
+      <c r="H43">
+        <v>148.1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.442</v>
+      </c>
+      <c r="K43">
+        <v>0.309</v>
+      </c>
+      <c r="L43">
+        <v>0.133</v>
+      </c>
+      <c r="M43">
+        <v>11.172749731</v>
+      </c>
+      <c r="N43">
+        <v>-11.039749731</v>
+      </c>
+      <c r="O43">
+        <v>-2.2079499462</v>
+      </c>
+      <c r="P43">
+        <v>-8.831799784800001</v>
+      </c>
+      <c r="Q43">
+        <v>-8.522799784800002</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1013473699327861</v>
+      </c>
+      <c r="T43">
+        <v>1.70410513876964</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.002380792610631511</v>
+      </c>
+      <c r="W43">
+        <v>0.183262648397427</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.01190396305315744</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1366766341032888</v>
+      </c>
+      <c r="C44">
+        <v>1.255955958110455</v>
+      </c>
+      <c r="D44">
+        <v>63.14001595811045</v>
+      </c>
+      <c r="E44">
+        <v>62.06105999999999</v>
+      </c>
+      <c r="F44">
+        <v>62.30405999999999</v>
+      </c>
+      <c r="G44">
+        <v>0.42</v>
+      </c>
+      <c r="H44">
+        <v>148.1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.442</v>
+      </c>
+      <c r="K44">
+        <v>0.309</v>
+      </c>
+      <c r="L44">
+        <v>0.133</v>
+      </c>
+      <c r="M44">
+        <v>11.445255822</v>
+      </c>
+      <c r="N44">
+        <v>-11.312255822</v>
+      </c>
+      <c r="O44">
+        <v>-2.262451164399999</v>
+      </c>
+      <c r="P44">
+        <v>-9.049804657599998</v>
+      </c>
+      <c r="Q44">
+        <v>-8.740804657599998</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1029343935523169</v>
+      </c>
+      <c r="T44">
+        <v>1.733486261851875</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.002324107072283142</v>
+      </c>
+      <c r="W44">
+        <v>0.1832730615308216</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.01162053536141583</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1384206341032889</v>
+      </c>
+      <c r="C45">
+        <v>-1.080290391465851</v>
+      </c>
+      <c r="D45">
+        <v>62.28719960853414</v>
+      </c>
+      <c r="E45">
+        <v>63.54448999999999</v>
+      </c>
+      <c r="F45">
+        <v>63.78748999999999</v>
+      </c>
+      <c r="G45">
+        <v>0.42</v>
+      </c>
+      <c r="H45">
+        <v>148.1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.442</v>
+      </c>
+      <c r="K45">
+        <v>0.309</v>
+      </c>
+      <c r="L45">
+        <v>0.133</v>
+      </c>
+      <c r="M45">
+        <v>11.717761913</v>
+      </c>
+      <c r="N45">
+        <v>-11.584761913</v>
+      </c>
+      <c r="O45">
+        <v>-2.3169523826</v>
+      </c>
+      <c r="P45">
+        <v>-9.267809530399997</v>
+      </c>
+      <c r="Q45">
+        <v>-8.958809530399998</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1045771022111294</v>
+      </c>
+      <c r="T45">
+        <v>1.763898301533486</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.002270058070602138</v>
+      </c>
+      <c r="W45">
+        <v>0.1832829903324304</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.01135029035301072</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1401646341032889</v>
+      </c>
+      <c r="C46">
+        <v>-3.393806203890513</v>
+      </c>
+      <c r="D46">
+        <v>61.45711379610947</v>
+      </c>
+      <c r="E46">
+        <v>65.02791999999999</v>
+      </c>
+      <c r="F46">
+        <v>65.27091999999999</v>
+      </c>
+      <c r="G46">
+        <v>0.42</v>
+      </c>
+      <c r="H46">
+        <v>148.1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.442</v>
+      </c>
+      <c r="K46">
+        <v>0.309</v>
+      </c>
+      <c r="L46">
+        <v>0.133</v>
+      </c>
+      <c r="M46">
+        <v>11.990268004</v>
+      </c>
+      <c r="N46">
+        <v>-11.857268004</v>
+      </c>
+      <c r="O46">
+        <v>-2.3714536008</v>
+      </c>
+      <c r="P46">
+        <v>-9.485814403199999</v>
+      </c>
+      <c r="Q46">
+        <v>-9.1768144032</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1062784790363282</v>
+      </c>
+      <c r="T46">
+        <v>1.795396485489442</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.002218465841724817</v>
+      </c>
+      <c r="W46">
+        <v>0.1832924678248752</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.01109232920862413</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
         <v>0.45</v>
       </c>
-      <c r="N3">
-        <v>0.01113861386138614</v>
-      </c>
-      <c r="O3">
-        <v>-0.5408653846153847</v>
-      </c>
-      <c r="P3">
-        <v>0.45</v>
-      </c>
-      <c r="Q3">
-        <v>0.01113861386138614</v>
-      </c>
-      <c r="R3">
-        <v>-0.5408653846153847</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0.361</v>
-      </c>
-      <c r="V3">
-        <v>0.008935643564356435</v>
-      </c>
-      <c r="W3">
-        <v>-0.07849056603773585</v>
-      </c>
-      <c r="X3">
-        <v>0.07446482134029415</v>
-      </c>
-      <c r="Y3">
-        <v>-0.15295538737803</v>
-      </c>
-      <c r="Z3">
-        <v>1.06119925819081</v>
-      </c>
-      <c r="AA3">
-        <v>-0.08778075417267669</v>
-      </c>
-      <c r="AB3">
-        <v>0.07446482134029415</v>
-      </c>
-      <c r="AC3">
-        <v>-0.1622455755129709</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>-0.361</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.009016209196033867</v>
-      </c>
-      <c r="AK3">
-        <v>-0.04149902287619266</v>
-      </c>
-      <c r="AL3">
-        <v>0.006</v>
-      </c>
-      <c r="AM3">
-        <v>0.006</v>
-      </c>
-      <c r="AN3">
-        <v>-0</v>
-      </c>
-      <c r="AO3">
-        <v>-142</v>
-      </c>
-      <c r="AP3">
-        <v>0.6747663551401869</v>
-      </c>
-      <c r="AQ3">
-        <v>-142</v>
+      <c r="B47">
+        <v>0.1419086341032889</v>
+      </c>
+      <c r="C47">
+        <v>-5.685488299880973</v>
+      </c>
+      <c r="D47">
+        <v>60.64886170011903</v>
+      </c>
+      <c r="E47">
+        <v>66.51135000000001</v>
+      </c>
+      <c r="F47">
+        <v>66.75435</v>
+      </c>
+      <c r="G47">
+        <v>0.42</v>
+      </c>
+      <c r="H47">
+        <v>148.1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.442</v>
+      </c>
+      <c r="K47">
+        <v>0.309</v>
+      </c>
+      <c r="L47">
+        <v>0.133</v>
+      </c>
+      <c r="M47">
+        <v>12.262774095</v>
+      </c>
+      <c r="N47">
+        <v>-12.129774095</v>
+      </c>
+      <c r="O47">
+        <v>-2.425954819000001</v>
+      </c>
+      <c r="P47">
+        <v>-9.703819276000001</v>
+      </c>
+      <c r="Q47">
+        <v>-9.394819276000002</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.108041724109716</v>
+      </c>
+      <c r="T47">
+        <v>1.828040057952886</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.002169166600797599</v>
+      </c>
+      <c r="W47">
+        <v>0.1833015240954335</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.01084583300398789</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1436526341032889</v>
+      </c>
+      <c r="C48">
+        <v>-7.956186934477991</v>
+      </c>
+      <c r="D48">
+        <v>59.86159306552201</v>
+      </c>
+      <c r="E48">
+        <v>67.99478000000001</v>
+      </c>
+      <c r="F48">
+        <v>68.23778</v>
+      </c>
+      <c r="G48">
+        <v>0.42</v>
+      </c>
+      <c r="H48">
+        <v>148.1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.442</v>
+      </c>
+      <c r="K48">
+        <v>0.309</v>
+      </c>
+      <c r="L48">
+        <v>0.133</v>
+      </c>
+      <c r="M48">
+        <v>12.535280186</v>
+      </c>
+      <c r="N48">
+        <v>-12.402280186</v>
+      </c>
+      <c r="O48">
+        <v>-2.4804560372</v>
+      </c>
+      <c r="P48">
+        <v>-9.921824148799999</v>
+      </c>
+      <c r="Q48">
+        <v>-9.6128241488</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1098702745561922</v>
+      </c>
+      <c r="T48">
+        <v>1.86189265161868</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.002122010805128086</v>
+      </c>
+      <c r="W48">
+        <v>0.183310186615098</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.01061005402564053</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1453966341032888</v>
+      </c>
+      <c r="C49">
+        <v>-10.20670878060723</v>
+      </c>
+      <c r="D49">
+        <v>59.09450121939277</v>
+      </c>
+      <c r="E49">
+        <v>69.47821</v>
+      </c>
+      <c r="F49">
+        <v>69.72121</v>
+      </c>
+      <c r="G49">
+        <v>0.42</v>
+      </c>
+      <c r="H49">
+        <v>148.1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.442</v>
+      </c>
+      <c r="K49">
+        <v>0.309</v>
+      </c>
+      <c r="L49">
+        <v>0.133</v>
+      </c>
+      <c r="M49">
+        <v>12.807786277</v>
+      </c>
+      <c r="N49">
+        <v>-12.674786277</v>
+      </c>
+      <c r="O49">
+        <v>-2.5349572554</v>
+      </c>
+      <c r="P49">
+        <v>-10.1398290216</v>
+      </c>
+      <c r="Q49">
+        <v>-9.8308290216</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.111767826906309</v>
+      </c>
+      <c r="T49">
+        <v>1.897022701649221</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.002076861639061531</v>
+      </c>
+      <c r="W49">
+        <v>0.1833184805169044</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.01038430819530778</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1471406341032888</v>
+      </c>
+      <c r="C50">
+        <v>-12.43781968614771</v>
+      </c>
+      <c r="D50">
+        <v>58.34682031385229</v>
+      </c>
+      <c r="E50">
+        <v>70.96164</v>
+      </c>
+      <c r="F50">
+        <v>71.20464</v>
+      </c>
+      <c r="G50">
+        <v>0.42</v>
+      </c>
+      <c r="H50">
+        <v>148.1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.442</v>
+      </c>
+      <c r="K50">
+        <v>0.309</v>
+      </c>
+      <c r="L50">
+        <v>0.133</v>
+      </c>
+      <c r="M50">
+        <v>13.080292368</v>
+      </c>
+      <c r="N50">
+        <v>-12.947292368</v>
+      </c>
+      <c r="O50">
+        <v>-2.5894584736</v>
+      </c>
+      <c r="P50">
+        <v>-10.3578338944</v>
+      </c>
+      <c r="Q50">
+        <v>-10.0488338944</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1137383620391227</v>
+      </c>
+      <c r="T50">
+        <v>1.933503907450168</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.002033593688247749</v>
+      </c>
+      <c r="W50">
+        <v>0.1833264288394689</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.01016796844123879</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1488846341032888</v>
+      </c>
+      <c r="C51">
+        <v>-14.65024722431557</v>
+      </c>
+      <c r="D51">
+        <v>57.61782277568442</v>
+      </c>
+      <c r="E51">
+        <v>72.44507</v>
+      </c>
+      <c r="F51">
+        <v>72.68807</v>
+      </c>
+      <c r="G51">
+        <v>0.42</v>
+      </c>
+      <c r="H51">
+        <v>148.1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.442</v>
+      </c>
+      <c r="K51">
+        <v>0.309</v>
+      </c>
+      <c r="L51">
+        <v>0.133</v>
+      </c>
+      <c r="M51">
+        <v>13.352798459</v>
+      </c>
+      <c r="N51">
+        <v>-13.219798459</v>
+      </c>
+      <c r="O51">
+        <v>-2.6439596918</v>
+      </c>
+      <c r="P51">
+        <v>-10.5758387672</v>
+      </c>
+      <c r="Q51">
+        <v>-10.2668387672</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1157861730594976</v>
+      </c>
+      <c r="T51">
+        <v>1.97141574877272</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.001992091776242693</v>
+      </c>
+      <c r="W51">
+        <v>0.1833340527407042</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.009960458881213441</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1506286341032888</v>
+      </c>
+      <c r="C52">
+        <v>-16.84468305521713</v>
+      </c>
+      <c r="D52">
+        <v>56.90681694478286</v>
+      </c>
+      <c r="E52">
+        <v>73.9285</v>
+      </c>
+      <c r="F52">
+        <v>74.17149999999999</v>
+      </c>
+      <c r="G52">
+        <v>0.42</v>
+      </c>
+      <c r="H52">
+        <v>148.1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.442</v>
+      </c>
+      <c r="K52">
+        <v>0.309</v>
+      </c>
+      <c r="L52">
+        <v>0.133</v>
+      </c>
+      <c r="M52">
+        <v>13.62530455</v>
+      </c>
+      <c r="N52">
+        <v>-13.49230455</v>
+      </c>
+      <c r="O52">
+        <v>-2.69846091</v>
+      </c>
+      <c r="P52">
+        <v>-10.79384364</v>
+      </c>
+      <c r="Q52">
+        <v>-10.48484364</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1179158965206875</v>
+      </c>
+      <c r="T52">
+        <v>2.010844063748174</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.001952249940717839</v>
+      </c>
+      <c r="W52">
+        <v>0.1833413716858901</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.009761249703589159</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1523726341032889</v>
+      </c>
+      <c r="C53">
+        <v>-19.02178511468347</v>
+      </c>
+      <c r="D53">
+        <v>56.21314488531652</v>
+      </c>
+      <c r="E53">
+        <v>75.41193</v>
+      </c>
+      <c r="F53">
+        <v>75.65492999999999</v>
+      </c>
+      <c r="G53">
+        <v>0.42</v>
+      </c>
+      <c r="H53">
+        <v>148.1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.442</v>
+      </c>
+      <c r="K53">
+        <v>0.309</v>
+      </c>
+      <c r="L53">
+        <v>0.133</v>
+      </c>
+      <c r="M53">
+        <v>13.897810641</v>
+      </c>
+      <c r="N53">
+        <v>-13.764810641</v>
+      </c>
+      <c r="O53">
+        <v>-2.7529621282</v>
+      </c>
+      <c r="P53">
+        <v>-11.0118485128</v>
+      </c>
+      <c r="Q53">
+        <v>-10.7028485128</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1201325474700893</v>
+      </c>
+      <c r="T53">
+        <v>2.051881697702219</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.001913970530115529</v>
+      </c>
+      <c r="W53">
+        <v>0.1833484036136178</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.009569852650577526</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1541166341032889</v>
+      </c>
+      <c r="C54">
+        <v>-21.1821796449464</v>
+      </c>
+      <c r="D54">
+        <v>55.53618035505359</v>
+      </c>
+      <c r="E54">
+        <v>76.89536</v>
+      </c>
+      <c r="F54">
+        <v>77.13835999999999</v>
+      </c>
+      <c r="G54">
+        <v>0.42</v>
+      </c>
+      <c r="H54">
+        <v>148.1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.442</v>
+      </c>
+      <c r="K54">
+        <v>0.309</v>
+      </c>
+      <c r="L54">
+        <v>0.133</v>
+      </c>
+      <c r="M54">
+        <v>14.170316732</v>
+      </c>
+      <c r="N54">
+        <v>-14.037316732</v>
+      </c>
+      <c r="O54">
+        <v>-2.8074633464</v>
+      </c>
+      <c r="P54">
+        <v>-11.2298533856</v>
+      </c>
+      <c r="Q54">
+        <v>-10.9208533856</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1224415588757162</v>
+      </c>
+      <c r="T54">
+        <v>2.094629233071016</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.001877163404536384</v>
+      </c>
+      <c r="W54">
+        <v>0.1833551650825867</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.00938581702268193</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1558606341032888</v>
+      </c>
+      <c r="C55">
+        <v>-23.3264630803304</v>
+      </c>
+      <c r="D55">
+        <v>54.8753269196696</v>
+      </c>
+      <c r="E55">
+        <v>78.37879000000001</v>
+      </c>
+      <c r="F55">
+        <v>78.62179</v>
+      </c>
+      <c r="G55">
+        <v>0.42</v>
+      </c>
+      <c r="H55">
+        <v>148.1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.442</v>
+      </c>
+      <c r="K55">
+        <v>0.309</v>
+      </c>
+      <c r="L55">
+        <v>0.133</v>
+      </c>
+      <c r="M55">
+        <v>14.442822823</v>
+      </c>
+      <c r="N55">
+        <v>-14.309822823</v>
+      </c>
+      <c r="O55">
+        <v>-2.8619645646</v>
+      </c>
+      <c r="P55">
+        <v>-11.4478582584</v>
+      </c>
+      <c r="Q55">
+        <v>-11.1388582584</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1248488260858379</v>
+      </c>
+      <c r="T55">
+        <v>2.139195812498059</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.001841745227092301</v>
+      </c>
+      <c r="W55">
+        <v>0.1833616714017831</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.00920872613546142</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1576046341032888</v>
+      </c>
+      <c r="C56">
+        <v>-25.45520379989464</v>
+      </c>
+      <c r="D56">
+        <v>54.23001620010536</v>
+      </c>
+      <c r="E56">
+        <v>79.86222000000001</v>
+      </c>
+      <c r="F56">
+        <v>80.10522</v>
+      </c>
+      <c r="G56">
+        <v>0.42</v>
+      </c>
+      <c r="H56">
+        <v>148.1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.442</v>
+      </c>
+      <c r="K56">
+        <v>0.309</v>
+      </c>
+      <c r="L56">
+        <v>0.133</v>
+      </c>
+      <c r="M56">
+        <v>14.715328914</v>
+      </c>
+      <c r="N56">
+        <v>-14.582328914</v>
+      </c>
+      <c r="O56">
+        <v>-2.9164657828</v>
+      </c>
+      <c r="P56">
+        <v>-11.6658631312</v>
+      </c>
+      <c r="Q56">
+        <v>-11.3568631312</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1273607570877039</v>
+      </c>
+      <c r="T56">
+        <v>2.185700069291494</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.001807638833997999</v>
+      </c>
+      <c r="W56">
+        <v>0.1833679367461946</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.009038194169989966</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1593486341032889</v>
+      </c>
+      <c r="C57">
+        <v>-27.56894375785053</v>
+      </c>
+      <c r="D57">
+        <v>53.59970624214947</v>
+      </c>
+      <c r="E57">
+        <v>81.34565000000001</v>
+      </c>
+      <c r="F57">
+        <v>81.58865</v>
+      </c>
+      <c r="G57">
+        <v>0.42</v>
+      </c>
+      <c r="H57">
+        <v>148.1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.442</v>
+      </c>
+      <c r="K57">
+        <v>0.309</v>
+      </c>
+      <c r="L57">
+        <v>0.133</v>
+      </c>
+      <c r="M57">
+        <v>14.987835005</v>
+      </c>
+      <c r="N57">
+        <v>-14.854835005</v>
+      </c>
+      <c r="O57">
+        <v>-2.970967001</v>
+      </c>
+      <c r="P57">
+        <v>-11.883868004</v>
+      </c>
+      <c r="Q57">
+        <v>-11.574868004</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1299843294674306</v>
+      </c>
+      <c r="T57">
+        <v>2.234271181942416</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.001774772673379854</v>
+      </c>
+      <c r="W57">
+        <v>0.1833739742599001</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.008873863366899215</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1610926341032889</v>
+      </c>
+      <c r="C58">
+        <v>-29.66820000158448</v>
+      </c>
+      <c r="D58">
+        <v>52.98387999841552</v>
+      </c>
+      <c r="E58">
+        <v>82.82908</v>
+      </c>
+      <c r="F58">
+        <v>83.07208</v>
+      </c>
+      <c r="G58">
+        <v>0.42</v>
+      </c>
+      <c r="H58">
+        <v>148.1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.442</v>
+      </c>
+      <c r="K58">
+        <v>0.309</v>
+      </c>
+      <c r="L58">
+        <v>0.133</v>
+      </c>
+      <c r="M58">
+        <v>15.260341096</v>
+      </c>
+      <c r="N58">
+        <v>-15.127341096</v>
+      </c>
+      <c r="O58">
+        <v>-3.0254682192</v>
+      </c>
+      <c r="P58">
+        <v>-12.1018728768</v>
+      </c>
+      <c r="Q58">
+        <v>-11.7928728768</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.132727155137145</v>
+      </c>
+      <c r="T58">
+        <v>2.285050072441108</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.001743080304212356</v>
+      </c>
+      <c r="W58">
+        <v>0.1833797961481162</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.008715401521061872</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1628366341032889</v>
+      </c>
+      <c r="C59">
+        <v>-31.75346608622257</v>
+      </c>
+      <c r="D59">
+        <v>52.38204391377742</v>
+      </c>
+      <c r="E59">
+        <v>84.31251</v>
+      </c>
+      <c r="F59">
+        <v>84.55551</v>
+      </c>
+      <c r="G59">
+        <v>0.42</v>
+      </c>
+      <c r="H59">
+        <v>148.1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.442</v>
+      </c>
+      <c r="K59">
+        <v>0.309</v>
+      </c>
+      <c r="L59">
+        <v>0.133</v>
+      </c>
+      <c r="M59">
+        <v>15.532847187</v>
+      </c>
+      <c r="N59">
+        <v>-15.399847187</v>
+      </c>
+      <c r="O59">
+        <v>-3.0799694374</v>
+      </c>
+      <c r="P59">
+        <v>-12.3198777496</v>
+      </c>
+      <c r="Q59">
+        <v>-12.0108777496</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1355975540938227</v>
+      </c>
+      <c r="T59">
+        <v>2.338190771800203</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.001712499947998104</v>
+      </c>
+      <c r="W59">
+        <v>0.1833854137595528</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.00856249973999057</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1645806341032888</v>
+      </c>
+      <c r="C60">
+        <v>-33.82521339387124</v>
+      </c>
+      <c r="D60">
+        <v>51.79372660612874</v>
+      </c>
+      <c r="E60">
+        <v>85.79593999999999</v>
+      </c>
+      <c r="F60">
+        <v>86.03893999999998</v>
+      </c>
+      <c r="G60">
+        <v>0.42</v>
+      </c>
+      <c r="H60">
+        <v>148.1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.442</v>
+      </c>
+      <c r="K60">
+        <v>0.309</v>
+      </c>
+      <c r="L60">
+        <v>0.133</v>
+      </c>
+      <c r="M60">
+        <v>15.805353278</v>
+      </c>
+      <c r="N60">
+        <v>-15.672353278</v>
+      </c>
+      <c r="O60">
+        <v>-3.134470655599999</v>
+      </c>
+      <c r="P60">
+        <v>-12.5378826224</v>
+      </c>
+      <c r="Q60">
+        <v>-12.2288826224</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1386046387151042</v>
+      </c>
+      <c r="T60">
+        <v>2.393861980652589</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.001682974086825724</v>
+      </c>
+      <c r="W60">
+        <v>0.1833908376602501</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.008414870434128696</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1663246341032888</v>
+      </c>
+      <c r="C61">
+        <v>-35.88389236494463</v>
+      </c>
+      <c r="D61">
+        <v>51.21847763505536</v>
+      </c>
+      <c r="E61">
+        <v>87.27937</v>
+      </c>
+      <c r="F61">
+        <v>87.52237</v>
+      </c>
+      <c r="G61">
+        <v>0.42</v>
+      </c>
+      <c r="H61">
+        <v>148.1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.442</v>
+      </c>
+      <c r="K61">
+        <v>0.309</v>
+      </c>
+      <c r="L61">
+        <v>0.133</v>
+      </c>
+      <c r="M61">
+        <v>16.077859369</v>
+      </c>
+      <c r="N61">
+        <v>-15.944859369</v>
+      </c>
+      <c r="O61">
+        <v>-3.1889718738</v>
+      </c>
+      <c r="P61">
+        <v>-12.7558874952</v>
+      </c>
+      <c r="Q61">
+        <v>-12.4468874952</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1417584103910824</v>
+      </c>
+      <c r="T61">
+        <v>2.452248858229481</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.001654449102303254</v>
+      </c>
+      <c r="W61">
+        <v>0.1833960776999069</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.008272245511516174</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1680686341032888</v>
+      </c>
+      <c r="C62">
+        <v>-37.92993364833845</v>
+      </c>
+      <c r="D62">
+        <v>50.65586635166154</v>
+      </c>
+      <c r="E62">
+        <v>88.7628</v>
+      </c>
+      <c r="F62">
+        <v>89.00579999999999</v>
+      </c>
+      <c r="G62">
+        <v>0.42</v>
+      </c>
+      <c r="H62">
+        <v>148.1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.442</v>
+      </c>
+      <c r="K62">
+        <v>0.309</v>
+      </c>
+      <c r="L62">
+        <v>0.133</v>
+      </c>
+      <c r="M62">
+        <v>16.35036546</v>
+      </c>
+      <c r="N62">
+        <v>-16.21736546</v>
+      </c>
+      <c r="O62">
+        <v>-3.243473092</v>
+      </c>
+      <c r="P62">
+        <v>-12.973892368</v>
+      </c>
+      <c r="Q62">
+        <v>-12.664892368</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1450698706508594</v>
+      </c>
+      <c r="T62">
+        <v>2.513555079685218</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.001626874950598199</v>
+      </c>
+      <c r="W62">
+        <v>0.1834011430715751</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.008134374752990947</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1698126341032888</v>
+      </c>
+      <c r="C63">
+        <v>-39.96374917662308</v>
+      </c>
+      <c r="D63">
+        <v>50.10548082337691</v>
+      </c>
+      <c r="E63">
+        <v>90.24623</v>
+      </c>
+      <c r="F63">
+        <v>90.48922999999999</v>
+      </c>
+      <c r="G63">
+        <v>0.42</v>
+      </c>
+      <c r="H63">
+        <v>148.1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.442</v>
+      </c>
+      <c r="K63">
+        <v>0.309</v>
+      </c>
+      <c r="L63">
+        <v>0.133</v>
+      </c>
+      <c r="M63">
+        <v>16.622871551</v>
+      </c>
+      <c r="N63">
+        <v>-16.489871551</v>
+      </c>
+      <c r="O63">
+        <v>-3.2979743102</v>
+      </c>
+      <c r="P63">
+        <v>-13.1918972408</v>
+      </c>
+      <c r="Q63">
+        <v>-12.8828972408</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1485511493854969</v>
+      </c>
+      <c r="T63">
+        <v>2.578005209933557</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.001600204869440852</v>
+      </c>
+      <c r="W63">
+        <v>0.1834060423654837</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.008001024347204178</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1715566341032889</v>
+      </c>
+      <c r="C64">
+        <v>-41.98573317189666</v>
+      </c>
+      <c r="D64">
+        <v>49.56692682810333</v>
+      </c>
+      <c r="E64">
+        <v>91.72966</v>
+      </c>
+      <c r="F64">
+        <v>91.97265999999999</v>
+      </c>
+      <c r="G64">
+        <v>0.42</v>
+      </c>
+      <c r="H64">
+        <v>148.1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.442</v>
+      </c>
+      <c r="K64">
+        <v>0.309</v>
+      </c>
+      <c r="L64">
+        <v>0.133</v>
+      </c>
+      <c r="M64">
+        <v>16.895377642</v>
+      </c>
+      <c r="N64">
+        <v>-16.762377642</v>
+      </c>
+      <c r="O64">
+        <v>-3.3524755284</v>
+      </c>
+      <c r="P64">
+        <v>-13.4099021136</v>
+      </c>
+      <c r="Q64">
+        <v>-13.1009021136</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1522156533166941</v>
+      </c>
+      <c r="T64">
+        <v>2.64584745230023</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.001574395113482128</v>
+      </c>
+      <c r="W64">
+        <v>0.1834107836176533</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.007871975567410594</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1733006341032888</v>
+      </c>
+      <c r="C65">
+        <v>-43.9962630874602</v>
+      </c>
+      <c r="D65">
+        <v>49.03982691253979</v>
+      </c>
+      <c r="E65">
+        <v>93.21308999999999</v>
+      </c>
+      <c r="F65">
+        <v>93.45608999999999</v>
+      </c>
+      <c r="G65">
+        <v>0.42</v>
+      </c>
+      <c r="H65">
+        <v>148.1</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.442</v>
+      </c>
+      <c r="K65">
+        <v>0.309</v>
+      </c>
+      <c r="L65">
+        <v>0.133</v>
+      </c>
+      <c r="M65">
+        <v>17.167883733</v>
+      </c>
+      <c r="N65">
+        <v>-17.034883733</v>
+      </c>
+      <c r="O65">
+        <v>-3.4069767466</v>
+      </c>
+      <c r="P65">
+        <v>-13.6279069864</v>
+      </c>
+      <c r="Q65">
+        <v>-13.3189069864</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1560782385414697</v>
+      </c>
+      <c r="T65">
+        <v>2.717356842902938</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.001549404714855428</v>
+      </c>
+      <c r="W65">
+        <v>0.1834153743538811</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.007747023574277034</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1750446341032889</v>
+      </c>
+      <c r="C66">
+        <v>-45.99570049004178</v>
+      </c>
+      <c r="D66">
+        <v>48.52381950995822</v>
+      </c>
+      <c r="E66">
+        <v>94.69652000000001</v>
+      </c>
+      <c r="F66">
+        <v>94.93952</v>
+      </c>
+      <c r="G66">
+        <v>0.42</v>
+      </c>
+      <c r="H66">
+        <v>148.1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.442</v>
+      </c>
+      <c r="K66">
+        <v>0.309</v>
+      </c>
+      <c r="L66">
+        <v>0.133</v>
+      </c>
+      <c r="M66">
+        <v>17.440389824</v>
+      </c>
+      <c r="N66">
+        <v>-17.307389824</v>
+      </c>
+      <c r="O66">
+        <v>-3.4614779648</v>
+      </c>
+      <c r="P66">
+        <v>-13.8459118592</v>
+      </c>
+      <c r="Q66">
+        <v>-13.5369118592</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1601554118342883</v>
+      </c>
+      <c r="T66">
+        <v>2.79283897742802</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.001525195266185812</v>
+      </c>
+      <c r="W66">
+        <v>0.1834198216296017</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.007625976330928985</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1767886341032888</v>
+      </c>
+      <c r="C67">
+        <v>-47.98439188690278</v>
+      </c>
+      <c r="D67">
+        <v>48.01855811309722</v>
+      </c>
+      <c r="E67">
+        <v>96.17995000000001</v>
+      </c>
+      <c r="F67">
+        <v>96.42295</v>
+      </c>
+      <c r="G67">
+        <v>0.42</v>
+      </c>
+      <c r="H67">
+        <v>148.1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.442</v>
+      </c>
+      <c r="K67">
+        <v>0.309</v>
+      </c>
+      <c r="L67">
+        <v>0.133</v>
+      </c>
+      <c r="M67">
+        <v>17.712895915</v>
+      </c>
+      <c r="N67">
+        <v>-17.579895915</v>
+      </c>
+      <c r="O67">
+        <v>-3.515979183000001</v>
+      </c>
+      <c r="P67">
+        <v>-14.063916732</v>
+      </c>
+      <c r="Q67">
+        <v>-13.754916732</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1644655664581251</v>
+      </c>
+      <c r="T67">
+        <v>2.872634376783107</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.001501730723629107</v>
+      </c>
+      <c r="W67">
+        <v>0.1834241320660693</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.007508653618145456</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1785326341032888</v>
+      </c>
+      <c r="C68">
+        <v>-49.96266950180268</v>
+      </c>
+      <c r="D68">
+        <v>47.52371049819732</v>
+      </c>
+      <c r="E68">
+        <v>97.66338</v>
+      </c>
+      <c r="F68">
+        <v>97.90638</v>
+      </c>
+      <c r="G68">
+        <v>0.42</v>
+      </c>
+      <c r="H68">
+        <v>148.1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.442</v>
+      </c>
+      <c r="K68">
+        <v>0.309</v>
+      </c>
+      <c r="L68">
+        <v>0.133</v>
+      </c>
+      <c r="M68">
+        <v>17.985402006</v>
+      </c>
+      <c r="N68">
+        <v>-17.852402006</v>
+      </c>
+      <c r="O68">
+        <v>-3.570480401200001</v>
+      </c>
+      <c r="P68">
+        <v>-14.2819216048</v>
+      </c>
+      <c r="Q68">
+        <v>-13.9729216048</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1690292595892464</v>
+      </c>
+      <c r="T68">
+        <v>2.957123623159081</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.001478977227816545</v>
+      </c>
+      <c r="W68">
+        <v>0.1834283118832501</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.007394886139082679</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1802766341032889</v>
+      </c>
+      <c r="C69">
+        <v>-51.93085200347368</v>
+      </c>
+      <c r="D69">
+        <v>47.03895799652631</v>
+      </c>
+      <c r="E69">
+        <v>99.14681</v>
+      </c>
+      <c r="F69">
+        <v>99.38981</v>
+      </c>
+      <c r="G69">
+        <v>0.42</v>
+      </c>
+      <c r="H69">
+        <v>148.1</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.442</v>
+      </c>
+      <c r="K69">
+        <v>0.309</v>
+      </c>
+      <c r="L69">
+        <v>0.133</v>
+      </c>
+      <c r="M69">
+        <v>18.257908097</v>
+      </c>
+      <c r="N69">
+        <v>-18.124908097</v>
+      </c>
+      <c r="O69">
+        <v>-3.624981619400001</v>
+      </c>
+      <c r="P69">
+        <v>-14.4999264776</v>
+      </c>
+      <c r="Q69">
+        <v>-14.1909264776</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.17386954018286</v>
+      </c>
+      <c r="T69">
+        <v>3.046733429921477</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.001456902940834208</v>
+      </c>
+      <c r="W69">
+        <v>0.1834323669297687</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.007284514704171019</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1820206341032888</v>
+      </c>
+      <c r="C70">
+        <v>-53.88924518996178</v>
+      </c>
+      <c r="D70">
+        <v>46.56399481003822</v>
+      </c>
+      <c r="E70">
+        <v>100.63024</v>
+      </c>
+      <c r="F70">
+        <v>100.87324</v>
+      </c>
+      <c r="G70">
+        <v>0.42</v>
+      </c>
+      <c r="H70">
+        <v>148.1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.442</v>
+      </c>
+      <c r="K70">
+        <v>0.309</v>
+      </c>
+      <c r="L70">
+        <v>0.133</v>
+      </c>
+      <c r="M70">
+        <v>18.530414188</v>
+      </c>
+      <c r="N70">
+        <v>-18.397414188</v>
+      </c>
+      <c r="O70">
+        <v>-3.6794828376</v>
+      </c>
+      <c r="P70">
+        <v>-14.7179313504</v>
+      </c>
+      <c r="Q70">
+        <v>-14.4089313504</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1790123383135743</v>
+      </c>
+      <c r="T70">
+        <v>3.141943849606523</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.001435477897586647</v>
+      </c>
+      <c r="W70">
+        <v>0.1834363027102133</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.007177389487933228</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1837646341032889</v>
+      </c>
+      <c r="C71">
+        <v>-55.83814263192271</v>
+      </c>
+      <c r="D71">
+        <v>46.0985273680773</v>
+      </c>
+      <c r="E71">
+        <v>102.11367</v>
+      </c>
+      <c r="F71">
+        <v>102.35667</v>
+      </c>
+      <c r="G71">
+        <v>0.42</v>
+      </c>
+      <c r="H71">
+        <v>148.1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.442</v>
+      </c>
+      <c r="K71">
+        <v>0.309</v>
+      </c>
+      <c r="L71">
+        <v>0.133</v>
+      </c>
+      <c r="M71">
+        <v>18.802920279</v>
+      </c>
+      <c r="N71">
+        <v>-18.669920279</v>
+      </c>
+      <c r="O71">
+        <v>-3.733984055800001</v>
+      </c>
+      <c r="P71">
+        <v>-14.9359362232</v>
+      </c>
+      <c r="Q71">
+        <v>-14.6269362232</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1844869298720767</v>
+      </c>
+      <c r="T71">
+        <v>3.243296877013186</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.00141467387008539</v>
+      </c>
+      <c r="W71">
+        <v>0.1834401244100653</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.007073369350426906</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1855086341032889</v>
+      </c>
+      <c r="C72">
+        <v>-57.77782627771625</v>
+      </c>
+      <c r="D72">
+        <v>45.64227372228375</v>
+      </c>
+      <c r="E72">
+        <v>103.5971</v>
+      </c>
+      <c r="F72">
+        <v>103.8401</v>
+      </c>
+      <c r="G72">
+        <v>0.42</v>
+      </c>
+      <c r="H72">
+        <v>148.1</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.442</v>
+      </c>
+      <c r="K72">
+        <v>0.309</v>
+      </c>
+      <c r="L72">
+        <v>0.133</v>
+      </c>
+      <c r="M72">
+        <v>19.07542637</v>
+      </c>
+      <c r="N72">
+        <v>-18.94242637</v>
+      </c>
+      <c r="O72">
+        <v>-3.788485274000001</v>
+      </c>
+      <c r="P72">
+        <v>-15.153941096</v>
+      </c>
+      <c r="Q72">
+        <v>-14.844941096</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.190326494201146</v>
+      </c>
+      <c r="T72">
+        <v>3.351406772913625</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.001394464243369885</v>
+      </c>
+      <c r="W72">
+        <v>0.1834438369184929</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.006972321216849431</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1872526341032888</v>
+      </c>
+      <c r="C73">
+        <v>-59.70856702291969</v>
+      </c>
+      <c r="D73">
+        <v>45.19496297708029</v>
+      </c>
+      <c r="E73">
+        <v>105.08053</v>
+      </c>
+      <c r="F73">
+        <v>105.32353</v>
+      </c>
+      <c r="G73">
+        <v>0.42</v>
+      </c>
+      <c r="H73">
+        <v>148.1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.442</v>
+      </c>
+      <c r="K73">
+        <v>0.309</v>
+      </c>
+      <c r="L73">
+        <v>0.133</v>
+      </c>
+      <c r="M73">
+        <v>19.347932461</v>
+      </c>
+      <c r="N73">
+        <v>-19.214932461</v>
+      </c>
+      <c r="O73">
+        <v>-3.8429864922</v>
+      </c>
+      <c r="P73">
+        <v>-15.3719459688</v>
+      </c>
+      <c r="Q73">
+        <v>-15.0629459688</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1965687871046337</v>
+      </c>
+      <c r="T73">
+        <v>3.466972523703749</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.001374823901913971</v>
+      </c>
+      <c r="W73">
+        <v>0.1834474448492184</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.006874119509569843</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1889966341032888</v>
+      </c>
+      <c r="C74">
+        <v>-61.63062524667777</v>
+      </c>
+      <c r="D74">
+        <v>44.75633475332221</v>
+      </c>
+      <c r="E74">
+        <v>106.56396</v>
+      </c>
+      <c r="F74">
+        <v>106.80696</v>
+      </c>
+      <c r="G74">
+        <v>0.42</v>
+      </c>
+      <c r="H74">
+        <v>148.1</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.442</v>
+      </c>
+      <c r="K74">
+        <v>0.309</v>
+      </c>
+      <c r="L74">
+        <v>0.133</v>
+      </c>
+      <c r="M74">
+        <v>19.620438552</v>
+      </c>
+      <c r="N74">
+        <v>-19.487438552</v>
+      </c>
+      <c r="O74">
+        <v>-3.8974877104</v>
+      </c>
+      <c r="P74">
+        <v>-15.5899508416</v>
+      </c>
+      <c r="Q74">
+        <v>-15.2809508416</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2032569580726563</v>
+      </c>
+      <c r="T74">
+        <v>3.590792970978883</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.001355729125498499</v>
+      </c>
+      <c r="W74">
+        <v>0.1834509525596459</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.006778645627492419</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1907406341032888</v>
+      </c>
+      <c r="C75">
+        <v>-63.54425131712008</v>
+      </c>
+      <c r="D75">
+        <v>44.32613868287991</v>
+      </c>
+      <c r="E75">
+        <v>108.04739</v>
+      </c>
+      <c r="F75">
+        <v>108.29039</v>
+      </c>
+      <c r="G75">
+        <v>0.42</v>
+      </c>
+      <c r="H75">
+        <v>148.1</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.442</v>
+      </c>
+      <c r="K75">
+        <v>0.309</v>
+      </c>
+      <c r="L75">
+        <v>0.133</v>
+      </c>
+      <c r="M75">
+        <v>19.892944643</v>
+      </c>
+      <c r="N75">
+        <v>-19.759944643</v>
+      </c>
+      <c r="O75">
+        <v>-3.9519889286</v>
+      </c>
+      <c r="P75">
+        <v>-15.8079557144</v>
+      </c>
+      <c r="Q75">
+        <v>-15.4989557144</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2104405491123844</v>
+      </c>
+      <c r="T75">
+        <v>3.72378530323736</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.001337157493642356</v>
+      </c>
+      <c r="W75">
+        <v>0.1834543641684179</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.00668578746821169</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1924846341032888</v>
+      </c>
+      <c r="C76">
+        <v>-65.449686067908</v>
+      </c>
+      <c r="D76">
+        <v>43.90413393209197</v>
+      </c>
+      <c r="E76">
+        <v>109.53082</v>
+      </c>
+      <c r="F76">
+        <v>109.77382</v>
+      </c>
+      <c r="G76">
+        <v>0.42</v>
+      </c>
+      <c r="H76">
+        <v>148.1</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.442</v>
+      </c>
+      <c r="K76">
+        <v>0.309</v>
+      </c>
+      <c r="L76">
+        <v>0.133</v>
+      </c>
+      <c r="M76">
+        <v>20.165450734</v>
+      </c>
+      <c r="N76">
+        <v>-20.032450734</v>
+      </c>
+      <c r="O76">
+        <v>-4.0064901468</v>
+      </c>
+      <c r="P76">
+        <v>-16.0259605872</v>
+      </c>
+      <c r="Q76">
+        <v>-15.7169605872</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2181767240782453</v>
+      </c>
+      <c r="T76">
+        <v>3.867007814900335</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.001319087797782324</v>
+      </c>
+      <c r="W76">
+        <v>0.1834576835715474</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.006595438988911573</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1942286341032888</v>
+      </c>
+      <c r="C77">
+        <v>-67.34716124781676</v>
+      </c>
+      <c r="D77">
+        <v>43.49008875218324</v>
+      </c>
+      <c r="E77">
+        <v>111.01425</v>
+      </c>
+      <c r="F77">
+        <v>111.25725</v>
+      </c>
+      <c r="G77">
+        <v>0.42</v>
+      </c>
+      <c r="H77">
+        <v>148.1</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.442</v>
+      </c>
+      <c r="K77">
+        <v>0.309</v>
+      </c>
+      <c r="L77">
+        <v>0.133</v>
+      </c>
+      <c r="M77">
+        <v>20.437956825</v>
+      </c>
+      <c r="N77">
+        <v>-20.304956825</v>
+      </c>
+      <c r="O77">
+        <v>-4.060991365</v>
+      </c>
+      <c r="P77">
+        <v>-16.24396546</v>
+      </c>
+      <c r="Q77">
+        <v>-15.93496546</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2265317930413751</v>
+      </c>
+      <c r="T77">
+        <v>4.021688127496349</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.001301499960478559</v>
+      </c>
+      <c r="W77">
+        <v>0.1834609144572601</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.006507499802392736</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1959726341032889</v>
+      </c>
+      <c r="C78">
+        <v>-69.23689994511537</v>
+      </c>
+      <c r="D78">
+        <v>43.08378005488462</v>
+      </c>
+      <c r="E78">
+        <v>112.49768</v>
+      </c>
+      <c r="F78">
+        <v>112.74068</v>
+      </c>
+      <c r="G78">
+        <v>0.42</v>
+      </c>
+      <c r="H78">
+        <v>148.1</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.442</v>
+      </c>
+      <c r="K78">
+        <v>0.309</v>
+      </c>
+      <c r="L78">
+        <v>0.133</v>
+      </c>
+      <c r="M78">
+        <v>20.710462916</v>
+      </c>
+      <c r="N78">
+        <v>-20.577462916</v>
+      </c>
+      <c r="O78">
+        <v>-4.115492583200001</v>
+      </c>
+      <c r="P78">
+        <v>-16.4619703328</v>
+      </c>
+      <c r="Q78">
+        <v>-16.1529703328</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2355831177514325</v>
+      </c>
+      <c r="T78">
+        <v>4.189258466142031</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.001284374960998578</v>
+      </c>
+      <c r="W78">
+        <v>0.1834640603196646</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.0064218748049929</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1977166341032889</v>
+      </c>
+      <c r="C79">
+        <v>-71.11911698837889</v>
+      </c>
+      <c r="D79">
+        <v>42.68499301162111</v>
+      </c>
+      <c r="E79">
+        <v>113.98111</v>
+      </c>
+      <c r="F79">
+        <v>114.22411</v>
+      </c>
+      <c r="G79">
+        <v>0.42</v>
+      </c>
+      <c r="H79">
+        <v>148.1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.442</v>
+      </c>
+      <c r="K79">
+        <v>0.309</v>
+      </c>
+      <c r="L79">
+        <v>0.133</v>
+      </c>
+      <c r="M79">
+        <v>20.982969007</v>
+      </c>
+      <c r="N79">
+        <v>-20.849969007</v>
+      </c>
+      <c r="O79">
+        <v>-4.1699938014</v>
+      </c>
+      <c r="P79">
+        <v>-16.6799752056</v>
+      </c>
+      <c r="Q79">
+        <v>-16.3709752056</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2454215141754077</v>
+      </c>
+      <c r="T79">
+        <v>4.371400138582988</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.001267694766699895</v>
+      </c>
+      <c r="W79">
+        <v>0.1834671244713572</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.006338473833499392</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1994606341032888</v>
+      </c>
+      <c r="C80">
+        <v>-72.99401932524455</v>
+      </c>
+      <c r="D80">
+        <v>42.29352067475544</v>
+      </c>
+      <c r="E80">
+        <v>115.46454</v>
+      </c>
+      <c r="F80">
+        <v>115.70754</v>
+      </c>
+      <c r="G80">
+        <v>0.42</v>
+      </c>
+      <c r="H80">
+        <v>148.1</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.442</v>
+      </c>
+      <c r="K80">
+        <v>0.309</v>
+      </c>
+      <c r="L80">
+        <v>0.133</v>
+      </c>
+      <c r="M80">
+        <v>21.255475098</v>
+      </c>
+      <c r="N80">
+        <v>-21.122475098</v>
+      </c>
+      <c r="O80">
+        <v>-4.2244950196</v>
+      </c>
+      <c r="P80">
+        <v>-16.8979800784</v>
+      </c>
+      <c r="Q80">
+        <v>-16.5889800784</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2561543102742899</v>
+      </c>
+      <c r="T80">
+        <v>4.570100144882216</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.001251442269690923</v>
+      </c>
+      <c r="W80">
+        <v>0.1834701100550578</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.006257211348454583</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2012046341032888</v>
+      </c>
+      <c r="C81">
+        <v>-74.86180638051539</v>
+      </c>
+      <c r="D81">
+        <v>41.90916361948459</v>
+      </c>
+      <c r="E81">
+        <v>116.94797</v>
+      </c>
+      <c r="F81">
+        <v>117.19097</v>
+      </c>
+      <c r="G81">
+        <v>0.42</v>
+      </c>
+      <c r="H81">
+        <v>148.1</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.442</v>
+      </c>
+      <c r="K81">
+        <v>0.309</v>
+      </c>
+      <c r="L81">
+        <v>0.133</v>
+      </c>
+      <c r="M81">
+        <v>21.527981189</v>
+      </c>
+      <c r="N81">
+        <v>-21.394981189</v>
+      </c>
+      <c r="O81">
+        <v>-4.2789962378</v>
+      </c>
+      <c r="P81">
+        <v>-17.1159849512</v>
+      </c>
+      <c r="Q81">
+        <v>-16.8069849512</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2679092774302085</v>
+      </c>
+      <c r="T81">
+        <v>4.787723961305178</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.00123560122830243</v>
+      </c>
+      <c r="W81">
+        <v>0.1834730200543608</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.006178006141512093</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2029486341032888</v>
+      </c>
+      <c r="C82">
+        <v>-76.72267039491386</v>
+      </c>
+      <c r="D82">
+        <v>41.53172960508613</v>
+      </c>
+      <c r="E82">
+        <v>118.4314</v>
+      </c>
+      <c r="F82">
+        <v>118.6744</v>
+      </c>
+      <c r="G82">
+        <v>0.42</v>
+      </c>
+      <c r="H82">
+        <v>148.1</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.442</v>
+      </c>
+      <c r="K82">
+        <v>0.309</v>
+      </c>
+      <c r="L82">
+        <v>0.133</v>
+      </c>
+      <c r="M82">
+        <v>21.80048728</v>
+      </c>
+      <c r="N82">
+        <v>-21.66748728</v>
+      </c>
+      <c r="O82">
+        <v>-4.333497456</v>
+      </c>
+      <c r="P82">
+        <v>-17.333989824</v>
+      </c>
+      <c r="Q82">
+        <v>-17.024989824</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.280839741301719</v>
+      </c>
+      <c r="T82">
+        <v>5.027110159370438</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.001220156212948649</v>
+      </c>
+      <c r="W82">
+        <v>0.1834758573036813</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.00610078106474321</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2046926341032889</v>
+      </c>
+      <c r="C83">
+        <v>-78.57679674569331</v>
+      </c>
+      <c r="D83">
+        <v>41.16103325430669</v>
+      </c>
+      <c r="E83">
+        <v>119.91483</v>
+      </c>
+      <c r="F83">
+        <v>120.15783</v>
+      </c>
+      <c r="G83">
+        <v>0.42</v>
+      </c>
+      <c r="H83">
+        <v>148.1</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.442</v>
+      </c>
+      <c r="K83">
+        <v>0.309</v>
+      </c>
+      <c r="L83">
+        <v>0.133</v>
+      </c>
+      <c r="M83">
+        <v>22.072993371</v>
+      </c>
+      <c r="N83">
+        <v>-21.939993371</v>
+      </c>
+      <c r="O83">
+        <v>-4.387998674200001</v>
+      </c>
+      <c r="P83">
+        <v>-17.5519946968</v>
+      </c>
+      <c r="Q83">
+        <v>-17.2429946968</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2951313066333884</v>
+      </c>
+      <c r="T83">
+        <v>5.291694904600461</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.001205092555998666</v>
+      </c>
+      <c r="W83">
+        <v>0.183478624497463</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.006025462779993274</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2064366341032888</v>
+      </c>
+      <c r="C84">
+        <v>-80.4243642502319</v>
+      </c>
+      <c r="D84">
+        <v>40.7968957497681</v>
+      </c>
+      <c r="E84">
+        <v>121.39826</v>
+      </c>
+      <c r="F84">
+        <v>121.64126</v>
+      </c>
+      <c r="G84">
+        <v>0.42</v>
+      </c>
+      <c r="H84">
+        <v>148.1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.442</v>
+      </c>
+      <c r="K84">
+        <v>0.309</v>
+      </c>
+      <c r="L84">
+        <v>0.133</v>
+      </c>
+      <c r="M84">
+        <v>22.345499462</v>
+      </c>
+      <c r="N84">
+        <v>-22.212499462</v>
+      </c>
+      <c r="O84">
+        <v>-4.4424998924</v>
+      </c>
+      <c r="P84">
+        <v>-17.7699995696</v>
+      </c>
+      <c r="Q84">
+        <v>-17.4609995696</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3110108236685766</v>
+      </c>
+      <c r="T84">
+        <v>5.585677954856042</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.001190396305315756</v>
+      </c>
+      <c r="W84">
+        <v>0.1834813241987135</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.00595198152657872</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2081806341032889</v>
+      </c>
+      <c r="C85">
+        <v>-82.26554545365298</v>
+      </c>
+      <c r="D85">
+        <v>40.43914454634703</v>
+      </c>
+      <c r="E85">
+        <v>122.88169</v>
+      </c>
+      <c r="F85">
+        <v>123.12469</v>
+      </c>
+      <c r="G85">
+        <v>0.42</v>
+      </c>
+      <c r="H85">
+        <v>148.1</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.442</v>
+      </c>
+      <c r="K85">
+        <v>0.309</v>
+      </c>
+      <c r="L85">
+        <v>0.133</v>
+      </c>
+      <c r="M85">
+        <v>22.618005553</v>
+      </c>
+      <c r="N85">
+        <v>-22.485005553</v>
+      </c>
+      <c r="O85">
+        <v>-4.4970011106</v>
+      </c>
+      <c r="P85">
+        <v>-17.9880044424</v>
+      </c>
+      <c r="Q85">
+        <v>-17.6790044424</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3287585191784929</v>
+      </c>
+      <c r="T85">
+        <v>5.914247246318163</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.001176054181155325</v>
+      </c>
+      <c r="W85">
+        <v>0.1834839588469218</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.005880270905776586</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2099246341032888</v>
+      </c>
+      <c r="C86">
+        <v>-84.10050690144374</v>
+      </c>
+      <c r="D86">
+        <v>40.08761309855624</v>
+      </c>
+      <c r="E86">
+        <v>124.36512</v>
+      </c>
+      <c r="F86">
+        <v>124.60812</v>
+      </c>
+      <c r="G86">
+        <v>0.42</v>
+      </c>
+      <c r="H86">
+        <v>148.1</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.442</v>
+      </c>
+      <c r="K86">
+        <v>0.309</v>
+      </c>
+      <c r="L86">
+        <v>0.133</v>
+      </c>
+      <c r="M86">
+        <v>22.890511644</v>
+      </c>
+      <c r="N86">
+        <v>-22.757511644</v>
+      </c>
+      <c r="O86">
+        <v>-4.5515023288</v>
+      </c>
+      <c r="P86">
+        <v>-18.2060093152</v>
+      </c>
+      <c r="Q86">
+        <v>-17.8970093152</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3487246766271486</v>
+      </c>
+      <c r="T86">
+        <v>6.283887699213046</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.001162053536141571</v>
+      </c>
+      <c r="W86">
+        <v>0.1834865307654108</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.005810267680707804</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2116686341032888</v>
+      </c>
+      <c r="C87">
+        <v>-85.92940939797798</v>
+      </c>
+      <c r="D87">
+        <v>39.742140602022</v>
+      </c>
+      <c r="E87">
+        <v>125.84855</v>
+      </c>
+      <c r="F87">
+        <v>126.09155</v>
+      </c>
+      <c r="G87">
+        <v>0.42</v>
+      </c>
+      <c r="H87">
+        <v>148.1</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.442</v>
+      </c>
+      <c r="K87">
+        <v>0.309</v>
+      </c>
+      <c r="L87">
+        <v>0.133</v>
+      </c>
+      <c r="M87">
+        <v>23.163017735</v>
+      </c>
+      <c r="N87">
+        <v>-23.030017735</v>
+      </c>
+      <c r="O87">
+        <v>-4.606003546999999</v>
+      </c>
+      <c r="P87">
+        <v>-18.424014188</v>
+      </c>
+      <c r="Q87">
+        <v>-18.115014188</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3713529884022918</v>
+      </c>
+      <c r="T87">
+        <v>6.702813545827247</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.001148382318069317</v>
+      </c>
+      <c r="W87">
+        <v>0.1834890421681707</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.005741911590346538</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2134126341032888</v>
+      </c>
+      <c r="C88">
+        <v>-87.75240825178469</v>
+      </c>
+      <c r="D88">
+        <v>39.4025717482153</v>
+      </c>
+      <c r="E88">
+        <v>127.33198</v>
+      </c>
+      <c r="F88">
+        <v>127.57498</v>
+      </c>
+      <c r="G88">
+        <v>0.42</v>
+      </c>
+      <c r="H88">
+        <v>148.1</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.442</v>
+      </c>
+      <c r="K88">
+        <v>0.309</v>
+      </c>
+      <c r="L88">
+        <v>0.133</v>
+      </c>
+      <c r="M88">
+        <v>23.435523826</v>
+      </c>
+      <c r="N88">
+        <v>-23.302523826</v>
+      </c>
+      <c r="O88">
+        <v>-4.6605047652</v>
+      </c>
+      <c r="P88">
+        <v>-18.6420190608</v>
+      </c>
+      <c r="Q88">
+        <v>-18.3330190608</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3972139161453127</v>
+      </c>
+      <c r="T88">
+        <v>7.181585941957766</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.001135029035301069</v>
+      </c>
+      <c r="W88">
+        <v>0.1834914951662152</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.005675145176505358</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2151566341032889</v>
+      </c>
+      <c r="C89">
+        <v>-89.56965350835011</v>
+      </c>
+      <c r="D89">
+        <v>39.06875649164986</v>
+      </c>
+      <c r="E89">
+        <v>128.81541</v>
+      </c>
+      <c r="F89">
+        <v>129.05841</v>
+      </c>
+      <c r="G89">
+        <v>0.42</v>
+      </c>
+      <c r="H89">
+        <v>148.1</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.442</v>
+      </c>
+      <c r="K89">
+        <v>0.309</v>
+      </c>
+      <c r="L89">
+        <v>0.133</v>
+      </c>
+      <c r="M89">
+        <v>23.708029917</v>
+      </c>
+      <c r="N89">
+        <v>-23.575029917</v>
+      </c>
+      <c r="O89">
+        <v>-4.7150059834</v>
+      </c>
+      <c r="P89">
+        <v>-18.8600239336</v>
+      </c>
+      <c r="Q89">
+        <v>-18.5510239336</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4270534481564906</v>
+      </c>
+      <c r="T89">
+        <v>7.734015629800671</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.001121982724550482</v>
+      </c>
+      <c r="W89">
+        <v>0.1834938917735001</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.005609913622752427</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2169006341032889</v>
+      </c>
+      <c r="C90">
+        <v>-91.38129017118499</v>
+      </c>
+      <c r="D90">
+        <v>38.740549828815</v>
+      </c>
+      <c r="E90">
+        <v>130.29884</v>
+      </c>
+      <c r="F90">
+        <v>130.54184</v>
+      </c>
+      <c r="G90">
+        <v>0.42</v>
+      </c>
+      <c r="H90">
+        <v>148.1</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.442</v>
+      </c>
+      <c r="K90">
+        <v>0.309</v>
+      </c>
+      <c r="L90">
+        <v>0.133</v>
+      </c>
+      <c r="M90">
+        <v>23.980536008</v>
+      </c>
+      <c r="N90">
+        <v>-23.847536008</v>
+      </c>
+      <c r="O90">
+        <v>-4.7695072016</v>
+      </c>
+      <c r="P90">
+        <v>-19.0780288064</v>
+      </c>
+      <c r="Q90">
+        <v>-18.7690288064</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4618662355028648</v>
+      </c>
+      <c r="T90">
+        <v>8.378516932284061</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.001109232920862409</v>
+      </c>
+      <c r="W90">
+        <v>0.1834962339124376</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.005546164604312009</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2186446341032888</v>
+      </c>
+      <c r="C91">
+        <v>-93.18745841184189</v>
+      </c>
+      <c r="D91">
+        <v>38.41781158815812</v>
+      </c>
+      <c r="E91">
+        <v>131.78227</v>
+      </c>
+      <c r="F91">
+        <v>132.02527</v>
+      </c>
+      <c r="G91">
+        <v>0.42</v>
+      </c>
+      <c r="H91">
+        <v>148.1</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.442</v>
+      </c>
+      <c r="K91">
+        <v>0.309</v>
+      </c>
+      <c r="L91">
+        <v>0.133</v>
+      </c>
+      <c r="M91">
+        <v>24.253042099</v>
+      </c>
+      <c r="N91">
+        <v>-24.120042099</v>
+      </c>
+      <c r="O91">
+        <v>-4.824008419800001</v>
+      </c>
+      <c r="P91">
+        <v>-19.2960336792</v>
+      </c>
+      <c r="Q91">
+        <v>-18.9870336792</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.5030086205485799</v>
+      </c>
+      <c r="T91">
+        <v>9.140200289764431</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.001096769629616763</v>
+      </c>
+      <c r="W91">
+        <v>0.1834985234190394</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.005483848148083781</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2203886341032888</v>
+      </c>
+      <c r="C92">
+        <v>-94.98829376952193</v>
+      </c>
+      <c r="D92">
+        <v>38.10040623047807</v>
+      </c>
+      <c r="E92">
+        <v>133.2657</v>
+      </c>
+      <c r="F92">
+        <v>133.5087</v>
+      </c>
+      <c r="G92">
+        <v>0.42</v>
+      </c>
+      <c r="H92">
+        <v>148.1</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.442</v>
+      </c>
+      <c r="K92">
+        <v>0.309</v>
+      </c>
+      <c r="L92">
+        <v>0.133</v>
+      </c>
+      <c r="M92">
+        <v>24.52554819</v>
+      </c>
+      <c r="N92">
+        <v>-24.39254819</v>
+      </c>
+      <c r="O92">
+        <v>-4.878509638000001</v>
+      </c>
+      <c r="P92">
+        <v>-19.514038552</v>
+      </c>
+      <c r="Q92">
+        <v>-19.205038552</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.5523794826034378</v>
+      </c>
+      <c r="T92">
+        <v>10.05422031874087</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.001084583300398799</v>
+      </c>
+      <c r="W92">
+        <v>0.1835007620477167</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.005422916501994002</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2221326341032888</v>
+      </c>
+      <c r="C93">
+        <v>-96.78392734086759</v>
+      </c>
+      <c r="D93">
+        <v>37.78820265913241</v>
+      </c>
+      <c r="E93">
+        <v>134.74913</v>
+      </c>
+      <c r="F93">
+        <v>134.99213</v>
+      </c>
+      <c r="G93">
+        <v>0.42</v>
+      </c>
+      <c r="H93">
+        <v>148.1</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.442</v>
+      </c>
+      <c r="K93">
+        <v>0.309</v>
+      </c>
+      <c r="L93">
+        <v>0.133</v>
+      </c>
+      <c r="M93">
+        <v>24.798054281</v>
+      </c>
+      <c r="N93">
+        <v>-24.665054281</v>
+      </c>
+      <c r="O93">
+        <v>-4.933010856200001</v>
+      </c>
+      <c r="P93">
+        <v>-19.7320434248</v>
+      </c>
+      <c r="Q93">
+        <v>-19.4230434248</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.6127216473371532</v>
+      </c>
+      <c r="T93">
+        <v>11.17135590971208</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.001072664802592219</v>
+      </c>
+      <c r="W93">
+        <v>0.1835029514757638</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.005363324012961024</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2238766341032888</v>
+      </c>
+      <c r="C94">
+        <v>-98.57448596050008</v>
+      </c>
+      <c r="D94">
+        <v>37.48107403949991</v>
+      </c>
+      <c r="E94">
+        <v>136.23256</v>
+      </c>
+      <c r="F94">
+        <v>136.47556</v>
+      </c>
+      <c r="G94">
+        <v>0.42</v>
+      </c>
+      <c r="H94">
+        <v>148.1</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.442</v>
+      </c>
+      <c r="K94">
+        <v>0.309</v>
+      </c>
+      <c r="L94">
+        <v>0.133</v>
+      </c>
+      <c r="M94">
+        <v>25.070560372</v>
+      </c>
+      <c r="N94">
+        <v>-24.937560372</v>
+      </c>
+      <c r="O94">
+        <v>-4.987512074400001</v>
+      </c>
+      <c r="P94">
+        <v>-19.9500482976</v>
+      </c>
+      <c r="Q94">
+        <v>-19.6410482976</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.6881493532542976</v>
+      </c>
+      <c r="T94">
+        <v>12.5677753984261</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.001061005402564043</v>
+      </c>
+      <c r="W94">
+        <v>0.183505093307549</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.005305027012820207</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2256206341032889</v>
+      </c>
+      <c r="C95">
+        <v>-100.3600923728236</v>
+      </c>
+      <c r="D95">
+        <v>37.17889762717636</v>
+      </c>
+      <c r="E95">
+        <v>137.71599</v>
+      </c>
+      <c r="F95">
+        <v>137.95899</v>
+      </c>
+      <c r="G95">
+        <v>0.42</v>
+      </c>
+      <c r="H95">
+        <v>148.1</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.442</v>
+      </c>
+      <c r="K95">
+        <v>0.309</v>
+      </c>
+      <c r="L95">
+        <v>0.133</v>
+      </c>
+      <c r="M95">
+        <v>25.343066463</v>
+      </c>
+      <c r="N95">
+        <v>-25.210066463</v>
+      </c>
+      <c r="O95">
+        <v>-5.0420132926</v>
+      </c>
+      <c r="P95">
+        <v>-20.1680531704</v>
+      </c>
+      <c r="Q95">
+        <v>-19.8590531704</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.7851278322906258</v>
+      </c>
+      <c r="T95">
+        <v>14.36317188391554</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.001049596742321419</v>
+      </c>
+      <c r="W95">
+        <v>0.1835071890784356</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.005247983711607063</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2273646341032888</v>
+      </c>
+      <c r="C96">
+        <v>-102.1408653955858</v>
+      </c>
+      <c r="D96">
+        <v>36.8815546044142</v>
+      </c>
+      <c r="E96">
+        <v>139.19942</v>
+      </c>
+      <c r="F96">
+        <v>139.44242</v>
+      </c>
+      <c r="G96">
+        <v>0.42</v>
+      </c>
+      <c r="H96">
+        <v>148.1</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.442</v>
+      </c>
+      <c r="K96">
+        <v>0.309</v>
+      </c>
+      <c r="L96">
+        <v>0.133</v>
+      </c>
+      <c r="M96">
+        <v>25.615572554</v>
+      </c>
+      <c r="N96">
+        <v>-25.482572554</v>
+      </c>
+      <c r="O96">
+        <v>-5.096514510800001</v>
+      </c>
+      <c r="P96">
+        <v>-20.3860580432</v>
+      </c>
+      <c r="Q96">
+        <v>-20.0770580432</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.9144324710057304</v>
+      </c>
+      <c r="T96">
+        <v>16.75703386456814</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.001038430819530765</v>
+      </c>
+      <c r="W96">
+        <v>0.1835092402584522</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.005192154097653834</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2291086341032889</v>
+      </c>
+      <c r="C97">
+        <v>-103.9169200756512</v>
+      </c>
+      <c r="D97">
+        <v>36.58892992434875</v>
+      </c>
+      <c r="E97">
+        <v>140.68285</v>
+      </c>
+      <c r="F97">
+        <v>140.92585</v>
+      </c>
+      <c r="G97">
+        <v>0.42</v>
+      </c>
+      <c r="H97">
+        <v>148.1</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.442</v>
+      </c>
+      <c r="K97">
+        <v>0.309</v>
+      </c>
+      <c r="L97">
+        <v>0.133</v>
+      </c>
+      <c r="M97">
+        <v>25.888078645</v>
+      </c>
+      <c r="N97">
+        <v>-25.755078645</v>
+      </c>
+      <c r="O97">
+        <v>-5.151015729000001</v>
+      </c>
+      <c r="P97">
+        <v>-20.604062916</v>
+      </c>
+      <c r="Q97">
+        <v>-20.295062916</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.095458965206877</v>
+      </c>
+      <c r="T97">
+        <v>20.10844063748177</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.001027499968798863</v>
+      </c>
+      <c r="W97">
+        <v>0.1835112482557316</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.005137499843994253</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2308526341032889</v>
+      </c>
+      <c r="C98">
+        <v>-105.6883678374185</v>
+      </c>
+      <c r="D98">
+        <v>36.30091216258153</v>
+      </c>
+      <c r="E98">
+        <v>142.16628</v>
+      </c>
+      <c r="F98">
+        <v>142.40928</v>
+      </c>
+      <c r="G98">
+        <v>0.42</v>
+      </c>
+      <c r="H98">
+        <v>148.1</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.442</v>
+      </c>
+      <c r="K98">
+        <v>0.309</v>
+      </c>
+      <c r="L98">
+        <v>0.133</v>
+      </c>
+      <c r="M98">
+        <v>26.160584736</v>
+      </c>
+      <c r="N98">
+        <v>-26.027584736</v>
+      </c>
+      <c r="O98">
+        <v>-5.2055169472</v>
+      </c>
+      <c r="P98">
+        <v>-20.8220677888</v>
+      </c>
+      <c r="Q98">
+        <v>-20.5130677888</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.366998706508593</v>
+      </c>
+      <c r="T98">
+        <v>25.13555079685216</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.001016796844123874</v>
+      </c>
+      <c r="W98">
+        <v>0.1835132144197344</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.005083984220619286</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2325966341032888</v>
+      </c>
+      <c r="C99">
+        <v>-107.4553166242814</v>
+      </c>
+      <c r="D99">
+        <v>36.01739337571858</v>
+      </c>
+      <c r="E99">
+        <v>143.64971</v>
+      </c>
+      <c r="F99">
+        <v>143.89271</v>
+      </c>
+      <c r="G99">
+        <v>0.42</v>
+      </c>
+      <c r="H99">
+        <v>148.1</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.442</v>
+      </c>
+      <c r="K99">
+        <v>0.309</v>
+      </c>
+      <c r="L99">
+        <v>0.133</v>
+      </c>
+      <c r="M99">
+        <v>26.433090827</v>
+      </c>
+      <c r="N99">
+        <v>-26.300090827</v>
+      </c>
+      <c r="O99">
+        <v>-5.260018165400001</v>
+      </c>
+      <c r="P99">
+        <v>-21.0400726616</v>
+      </c>
+      <c r="Q99">
+        <v>-20.7310726616</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.819564942011458</v>
+      </c>
+      <c r="T99">
+        <v>33.51406772913622</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.001006314402431876</v>
+      </c>
+      <c r="W99">
+        <v>0.1835151400442732</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.005031572012159313</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2343406341032888</v>
+      </c>
+      <c r="C100">
+        <v>-109.2178710335133</v>
+      </c>
+      <c r="D100">
+        <v>35.7382689664867</v>
+      </c>
+      <c r="E100">
+        <v>145.13314</v>
+      </c>
+      <c r="F100">
+        <v>145.37614</v>
+      </c>
+      <c r="G100">
+        <v>0.42</v>
+      </c>
+      <c r="H100">
+        <v>148.1</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.442</v>
+      </c>
+      <c r="K100">
+        <v>0.309</v>
+      </c>
+      <c r="L100">
+        <v>0.133</v>
+      </c>
+      <c r="M100">
+        <v>26.705596918</v>
+      </c>
+      <c r="N100">
+        <v>-26.572596918</v>
+      </c>
+      <c r="O100">
+        <v>-5.3145193836</v>
+      </c>
+      <c r="P100">
+        <v>-21.2580775344</v>
+      </c>
+      <c r="Q100">
+        <v>-20.9490775344</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.724697413017187</v>
+      </c>
+      <c r="T100">
+        <v>50.27110159370433</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.0009960458881213465</v>
+      </c>
+      <c r="W100">
+        <v>0.1835170263703521</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.00498022944060672</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2360846341032888</v>
+      </c>
+      <c r="C101">
+        <v>-110.976132444927</v>
+      </c>
+      <c r="D101">
+        <v>35.46343755507294</v>
+      </c>
+      <c r="E101">
+        <v>146.61657</v>
+      </c>
+      <c r="F101">
+        <v>146.85957</v>
+      </c>
+      <c r="G101">
+        <v>0.42</v>
+      </c>
+      <c r="H101">
+        <v>148.1</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.442</v>
+      </c>
+      <c r="K101">
+        <v>0.309</v>
+      </c>
+      <c r="L101">
+        <v>0.133</v>
+      </c>
+      <c r="M101">
+        <v>26.978103009</v>
+      </c>
+      <c r="N101">
+        <v>-26.845103009</v>
+      </c>
+      <c r="O101">
+        <v>-5.3690206018</v>
+      </c>
+      <c r="P101">
+        <v>-21.4760824072</v>
+      </c>
+      <c r="Q101">
+        <v>-21.1670824072</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>5.440094826034373</v>
+      </c>
+      <c r="T101">
+        <v>100.5422031874086</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.0009859848185443632</v>
+      </c>
+      <c r="W101">
+        <v>0.1835188745888334</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.004929924092721749</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
